--- a/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7155"/>
@@ -10,14 +10,15 @@
     <sheet name="Daily Requisition" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$130</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="164">
   <si>
     <t>Model Name</t>
   </si>
@@ -499,7 +500,16 @@
     <t>Black_Red</t>
   </si>
   <si>
-    <t>18.04.19</t>
+    <t>L62</t>
+  </si>
+  <si>
+    <t>21.04.19</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Black &amp; Gold</t>
   </si>
 </sst>
 </file>
@@ -1137,13 +1147,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E141" sqref="E141"/>
+      <selection pane="bottomRight" activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1188,7 +1198,7 @@
         <v>79</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1233,7 +1243,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="13">
-        <f t="shared" ref="D6:D90" si="0">C6*B6</f>
+        <f t="shared" ref="D6:D91" si="0">C6*B6</f>
         <v>0</v>
       </c>
       <c r="E6" s="11"/>
@@ -1254,17 +1264,19 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" hidden="1">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="11" t="s">
         <v>156</v>
       </c>
       <c r="B8" s="12">
         <v>901.24749999999995</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="11">
+        <v>20</v>
+      </c>
       <c r="D8" s="13">
-        <f>SUM(B8*C8)</f>
-        <v>0</v>
+        <f>B8*C8</f>
+        <v>18024.949999999997</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>157</v>
@@ -1278,11 +1290,11 @@
         <v>858.14</v>
       </c>
       <c r="C9" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" s="13">
         <f t="shared" si="0"/>
-        <v>17162.8</v>
+        <v>25744.2</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>152</v>
@@ -1296,11 +1308,11 @@
         <v>946.36</v>
       </c>
       <c r="C10" s="11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" s="13">
         <f t="shared" si="0"/>
-        <v>16088.12</v>
+        <v>18927.2</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>159</v>
@@ -1798,19 +1810,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15">
+    <row r="44" spans="1:5" ht="15" hidden="1">
       <c r="A44" s="11" t="s">
         <v>131</v>
       </c>
       <c r="B44" s="12">
         <v>6397.96</v>
       </c>
-      <c r="C44" s="11">
-        <v>5</v>
-      </c>
+      <c r="C44" s="11"/>
       <c r="D44" s="13">
         <f t="shared" si="0"/>
-        <v>31989.8</v>
+        <v>0</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>141</v>
@@ -2194,17 +2204,19 @@
       </c>
       <c r="E69" s="11"/>
     </row>
-    <row r="70" spans="1:5" ht="15" hidden="1">
+    <row r="70" spans="1:5" ht="15">
       <c r="A70" s="11" t="s">
         <v>158</v>
       </c>
       <c r="B70" s="12">
         <v>1014.53</v>
       </c>
-      <c r="C70" s="11"/>
+      <c r="C70" s="11">
+        <v>40</v>
+      </c>
       <c r="D70" s="13">
         <f>SUM(B70*C70)</f>
-        <v>0</v>
+        <v>40581.199999999997</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>152</v>
@@ -2252,26 +2264,30 @@
       </c>
       <c r="E73" s="11"/>
     </row>
-    <row r="74" spans="1:5" ht="15" hidden="1">
+    <row r="74" spans="1:5" ht="15">
       <c r="A74" s="11" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="B74" s="12">
-        <v>1303.25</v>
-      </c>
-      <c r="C74" s="11"/>
+        <v>1072.675</v>
+      </c>
+      <c r="C74" s="11">
+        <v>30</v>
+      </c>
       <c r="D74" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11"/>
+        <f>C74*B74</f>
+        <v>32180.25</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="15" hidden="1">
       <c r="A75" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B75" s="12">
-        <v>8150.3249999999998</v>
+        <v>1303.25</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="13">
@@ -2282,10 +2298,10 @@
     </row>
     <row r="76" spans="1:5" ht="15" hidden="1">
       <c r="A76" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B76" s="12">
-        <v>9067.6124999999993</v>
+        <v>8150.3249999999998</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="13">
@@ -2296,56 +2312,54 @@
     </row>
     <row r="77" spans="1:5" ht="15" hidden="1">
       <c r="A77" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" s="12">
-        <v>8565.36</v>
+        <v>9067.6124999999993</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E77" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" ht="15" hidden="1">
       <c r="A78" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B78" s="12">
-        <v>11854.5625</v>
+        <v>8565.36</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E78" s="11"/>
+      <c r="E78" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="15" hidden="1">
       <c r="A79" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B79" s="12">
-        <v>10616.475</v>
+        <v>11854.5625</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E79" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" ht="15" hidden="1">
       <c r="A80" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B80" s="12">
-        <v>12215.4625</v>
+        <v>10616.475</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="13">
@@ -2353,15 +2367,15 @@
         <v>0</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" hidden="1">
       <c r="A81" s="11" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B81" s="12">
-        <v>12691.65</v>
+        <v>12215.4625</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="13">
@@ -2369,15 +2383,15 @@
         <v>0</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" hidden="1">
       <c r="A82" s="11" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="B82" s="12">
-        <v>9097.6875</v>
+        <v>12691.65</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="13">
@@ -2385,15 +2399,15 @@
         <v>0</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" hidden="1">
       <c r="A83" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B83" s="12">
-        <v>10285.65</v>
+        <v>9097.6875</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="13">
@@ -2406,10 +2420,10 @@
     </row>
     <row r="84" spans="1:5" ht="15" hidden="1">
       <c r="A84" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B84" s="12">
-        <v>6342.8175000000001</v>
+        <v>10285.65</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="13">
@@ -2422,24 +2436,26 @@
     </row>
     <row r="85" spans="1:5" ht="15" hidden="1">
       <c r="A85" s="11" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B85" s="12">
-        <v>17443.5</v>
+        <v>6342.8175000000001</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E85" s="11"/>
+      <c r="E85" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="86" spans="1:5" ht="15" hidden="1">
       <c r="A86" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B86" s="12">
-        <v>13914.7</v>
+        <v>17443.5</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="13">
@@ -2450,128 +2466,128 @@
     </row>
     <row r="87" spans="1:5" ht="15" hidden="1">
       <c r="A87" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B87" s="12">
-        <v>12501.18</v>
+        <v>13914.7</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="13">
-        <f t="shared" ref="D87" si="2">C87*B87</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" ht="15" hidden="1">
       <c r="A88" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B88" s="12">
-        <v>23704.11</v>
+        <v>12501.18</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="13">
-        <f t="shared" ref="D88" si="3">C88*B88</f>
+        <f t="shared" ref="D88" si="2">C88*B88</f>
         <v>0</v>
       </c>
       <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" ht="15" hidden="1">
       <c r="A89" s="11" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="B89" s="12">
-        <v>1371.42</v>
+        <v>23704.11</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>82</v>
-      </c>
+        <f t="shared" ref="D89" si="3">C89*B89</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" ht="15" hidden="1">
       <c r="A90" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B90" s="12">
-        <v>1410.5174999999999</v>
+        <v>1371.42</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E90" s="11"/>
+      <c r="E90" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="91" spans="1:5" ht="15" hidden="1">
       <c r="A91" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B91" s="12">
-        <v>1694.2249999999999</v>
+        <v>1410.5174999999999</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="13">
-        <f t="shared" ref="D91:D129" si="4">C91*B91</f>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>82</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11"/>
     </row>
     <row r="92" spans="1:5" ht="15" hidden="1">
       <c r="A92" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B92" s="17">
-        <v>1219.04</v>
+        <v>48</v>
+      </c>
+      <c r="B92" s="12">
+        <v>1694.2249999999999</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11"/>
+        <f t="shared" ref="D92:D130" si="4">C92*B92</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="93" spans="1:5" ht="15" hidden="1">
       <c r="A93" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B93" s="18">
-        <v>1336.33</v>
+        <v>124</v>
+      </c>
+      <c r="B93" s="17">
+        <v>1219.04</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E93" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="E93" s="11"/>
     </row>
     <row r="94" spans="1:5" ht="15" hidden="1">
       <c r="A94" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B94" s="12">
-        <v>1871.6675</v>
+        <v>129</v>
+      </c>
+      <c r="B94" s="18">
+        <v>1336.33</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E94" s="11"/>
+      <c r="E94" s="11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="95" spans="1:5" ht="15" hidden="1">
       <c r="A95" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B95" s="12">
-        <v>1854.625</v>
+        <v>1871.6675</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="13">
@@ -2582,10 +2598,10 @@
     </row>
     <row r="96" spans="1:5" ht="15" hidden="1">
       <c r="A96" s="11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B96" s="12">
-        <v>1446.6075000000001</v>
+        <v>1854.625</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="13">
@@ -2596,26 +2612,24 @@
     </row>
     <row r="97" spans="1:5" ht="15" hidden="1">
       <c r="A97" s="11" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B97" s="12">
-        <v>7586.92</v>
+        <v>1446.6075000000001</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E97" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:5" ht="15" hidden="1">
       <c r="A98" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B98" s="12">
-        <v>8641.5499999999993</v>
+        <v>7586.92</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="13">
@@ -2628,10 +2642,10 @@
     </row>
     <row r="99" spans="1:5" ht="15" hidden="1">
       <c r="A99" s="11" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B99" s="12">
-        <v>5183.9274999999998</v>
+        <v>8641.5499999999993</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="13">
@@ -2639,15 +2653,15 @@
         <v>0</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" hidden="1">
       <c r="A100" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B100" s="12">
-        <v>5455.6049999999996</v>
+        <v>5183.9274999999998</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="13">
@@ -2660,10 +2674,10 @@
     </row>
     <row r="101" spans="1:5" ht="15" hidden="1">
       <c r="A101" s="11" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B101" s="12">
-        <v>5510.74</v>
+        <v>5455.6049999999996</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="13">
@@ -2676,10 +2690,10 @@
     </row>
     <row r="102" spans="1:5" ht="15" hidden="1">
       <c r="A102" s="11" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B102" s="12">
-        <v>4896.21</v>
+        <v>5510.74</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="13">
@@ -2692,10 +2706,10 @@
     </row>
     <row r="103" spans="1:5" ht="15" hidden="1">
       <c r="A103" s="11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103" s="12">
-        <v>5150.8500000000004</v>
+        <v>4896.21</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="13">
@@ -2703,15 +2717,15 @@
         <v>0</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" hidden="1">
       <c r="A104" s="11" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="B104" s="12">
-        <v>5310.24</v>
+        <v>5150.8500000000004</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="13">
@@ -2719,15 +2733,15 @@
         <v>0</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" hidden="1">
       <c r="A105" s="11" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B105" s="12">
-        <v>5423.53</v>
+        <v>5310.24</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="13">
@@ -2735,19 +2749,19 @@
         <v>0</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" hidden="1">
       <c r="A106" s="11" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B106" s="12">
-        <v>5940.82</v>
+        <v>5423.53</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="13">
-        <f t="shared" ref="D106:D107" si="5">C106*B106</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E106" s="11" t="s">
@@ -2756,14 +2770,14 @@
     </row>
     <row r="107" spans="1:5" ht="15" hidden="1">
       <c r="A107" s="11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B107" s="12">
-        <v>5257.11</v>
+        <v>5940.82</v>
       </c>
       <c r="C107" s="11"/>
       <c r="D107" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D107:D108" si="5">C107*B107</f>
         <v>0</v>
       </c>
       <c r="E107" s="11" t="s">
@@ -2772,14 +2786,14 @@
     </row>
     <row r="108" spans="1:5" ht="15" hidden="1">
       <c r="A108" s="11" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="B108" s="12">
-        <v>2900.2325000000001</v>
+        <v>5257.11</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E108" s="11" t="s">
@@ -2788,10 +2802,10 @@
     </row>
     <row r="109" spans="1:5" ht="15" hidden="1">
       <c r="A109" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B109" s="12">
-        <v>3143.84</v>
+        <v>2900.2325000000001</v>
       </c>
       <c r="C109" s="11"/>
       <c r="D109" s="13">
@@ -2799,45 +2813,45 @@
         <v>0</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" hidden="1">
       <c r="A110" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B110" s="12">
-        <v>3518.7750000000001</v>
+        <v>3143.84</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E110" s="11"/>
+      <c r="E110" s="11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="111" spans="1:5" ht="15" hidden="1">
       <c r="A111" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B111" s="12">
-        <v>3556.87</v>
+        <v>3518.7750000000001</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E111" s="11" t="s">
-        <v>85</v>
-      </c>
+      <c r="E111" s="11"/>
     </row>
     <row r="112" spans="1:5" ht="15" hidden="1">
       <c r="A112" s="11" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="B112" s="12">
-        <v>3471.66</v>
+        <v>3556.87</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="13">
@@ -2845,15 +2859,15 @@
         <v>0</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" hidden="1">
       <c r="A113" s="11" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="B113" s="12">
-        <v>3919.7750000000001</v>
+        <v>3471.66</v>
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="13">
@@ -2861,15 +2875,15 @@
         <v>0</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" hidden="1">
       <c r="A114" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B114" s="12">
-        <v>4534.3074999999999</v>
+        <v>3919.7750000000001</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="13">
@@ -2880,76 +2894,76 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15">
+    <row r="115" spans="1:5" ht="15" hidden="1">
       <c r="A115" s="11" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="B115" s="12">
-        <v>3433.56</v>
-      </c>
-      <c r="C115" s="11">
-        <v>3</v>
-      </c>
+        <v>4534.3074999999999</v>
+      </c>
+      <c r="C115" s="11"/>
       <c r="D115" s="13">
         <f t="shared" si="4"/>
-        <v>10300.68</v>
+        <v>0</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" hidden="1">
       <c r="A116" s="11" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="B116" s="12">
-        <v>4476.1625000000004</v>
+        <v>3433.56</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E116" s="11"/>
+      <c r="E116" s="11" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="117" spans="1:5" ht="15" hidden="1">
       <c r="A117" s="11" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="B117" s="12">
-        <v>4575.41</v>
+        <v>4476.1625000000004</v>
       </c>
       <c r="C117" s="11"/>
       <c r="D117" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E117" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15" hidden="1">
+      <c r="E117" s="11"/>
+    </row>
+    <row r="118" spans="1:5" ht="15">
       <c r="A118" s="11" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="B118" s="12">
-        <v>5269.14</v>
-      </c>
-      <c r="C118" s="11"/>
+        <v>4575.41</v>
+      </c>
+      <c r="C118" s="11">
+        <v>5</v>
+      </c>
       <c r="D118" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>22877.05</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" hidden="1">
       <c r="A119" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B119" s="12">
-        <v>5921.7674999999999</v>
+        <v>5269.14</v>
       </c>
       <c r="C119" s="11"/>
       <c r="D119" s="13">
@@ -2960,42 +2974,42 @@
         <v>82</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="12" hidden="1" customHeight="1">
+    <row r="120" spans="1:5" ht="15" hidden="1">
       <c r="A120" s="11" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="B120" s="12">
-        <v>4849.09</v>
+        <v>5921.7674999999999</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="13">
-        <f>C120*B120</f>
-        <v>0</v>
-      </c>
-      <c r="E120" s="11"/>
-    </row>
-    <row r="121" spans="1:5" ht="15" hidden="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="12" hidden="1" customHeight="1">
       <c r="A121" s="11" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B121" s="12">
-        <v>3934.8125</v>
+        <v>4849.09</v>
       </c>
       <c r="C121" s="11"/>
       <c r="D121" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>82</v>
-      </c>
+        <f>C121*B121</f>
+        <v>0</v>
+      </c>
+      <c r="E121" s="11"/>
     </row>
     <row r="122" spans="1:5" ht="15" hidden="1">
       <c r="A122" s="11" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="B122" s="12">
-        <v>4027.0425</v>
+        <v>3934.8125</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="13">
@@ -3006,28 +3020,30 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15" hidden="1">
+    <row r="123" spans="1:5" ht="15">
       <c r="A123" s="11" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B123" s="12">
-        <v>3892.71</v>
-      </c>
-      <c r="C123" s="11"/>
+        <v>4027.0425</v>
+      </c>
+      <c r="C123" s="11">
+        <v>5</v>
+      </c>
       <c r="D123" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20135.212500000001</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" hidden="1">
       <c r="A124" s="11" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="B124" s="12">
-        <v>4507.24</v>
+        <v>3892.71</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="13">
@@ -3035,15 +3051,15 @@
         <v>0</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" hidden="1">
       <c r="A125" s="11" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B125" s="12">
-        <v>4409</v>
+        <v>4507.24</v>
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="13">
@@ -3056,10 +3072,10 @@
     </row>
     <row r="126" spans="1:5" ht="15" hidden="1">
       <c r="A126" s="11" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B126" s="12">
-        <v>4165.3900000000003</v>
+        <v>4409</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="13">
@@ -3067,15 +3083,15 @@
         <v>0</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" hidden="1">
       <c r="A127" s="11" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B127" s="12">
-        <v>4252.6099999999997</v>
+        <v>4165.3900000000003</v>
       </c>
       <c r="C127" s="11"/>
       <c r="D127" s="13">
@@ -3083,98 +3099,105 @@
         <v>0</v>
       </c>
       <c r="E127" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15">
+      <c r="A128" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B128" s="12">
+        <v>4252.6099999999997</v>
+      </c>
+      <c r="C128" s="11">
+        <v>10</v>
+      </c>
+      <c r="D128" s="13">
+        <f t="shared" si="4"/>
+        <v>42526.1</v>
+      </c>
+      <c r="E128" s="11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="15" hidden="1">
-      <c r="A128" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B128" s="12">
-        <v>12741.775</v>
-      </c>
-      <c r="C128" s="11"/>
-      <c r="D128" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E128" s="11"/>
     </row>
     <row r="129" spans="1:9" ht="15" hidden="1">
       <c r="A129" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B129" s="12">
-        <v>12310.7</v>
+        <v>12741.775</v>
       </c>
       <c r="C129" s="11"/>
       <c r="D129" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="E129" s="11"/>
+    </row>
+    <row r="130" spans="1:9" ht="15" hidden="1">
+      <c r="A130" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B130" s="12">
+        <v>12310.7</v>
+      </c>
+      <c r="C130" s="11"/>
+      <c r="D130" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E130" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="2" customFormat="1" ht="15">
-      <c r="A130" s="39" t="s">
+    <row r="131" spans="1:9" s="2" customFormat="1" ht="15">
+      <c r="A131" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B130" s="39"/>
-      <c r="C130" s="19">
-        <f>SUBTOTAL(9,C9:C129)</f>
-        <v>65</v>
-      </c>
-      <c r="D130" s="20">
-        <f>SUBTOTAL(9,D9:D129)</f>
-        <v>100303.15</v>
-      </c>
-      <c r="E130" s="19"/>
-    </row>
-    <row r="131" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A131" s="3"/>
-    </row>
-    <row r="132" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A132" s="21"/>
-      <c r="B132" s="40" t="s">
+      <c r="B131" s="39"/>
+      <c r="C131" s="19">
+        <f>SUBTOTAL(9,C9:C130)</f>
+        <v>160</v>
+      </c>
+      <c r="D131" s="20">
+        <f>SUBTOTAL(9,D8:D130)</f>
+        <v>245757.91249999998</v>
+      </c>
+      <c r="E131" s="19"/>
+    </row>
+    <row r="132" spans="1:9" ht="9.75" customHeight="1">
+      <c r="A132" s="3"/>
+    </row>
+    <row r="133" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A133" s="21"/>
+      <c r="B133" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C132" s="40"/>
-      <c r="D132" s="40"/>
-      <c r="E132" s="22"/>
-    </row>
-    <row r="133" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A133" s="23"/>
-      <c r="B133" s="24" t="s">
+      <c r="C133" s="40"/>
+      <c r="D133" s="40"/>
+      <c r="E133" s="22"/>
+    </row>
+    <row r="134" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A134" s="23"/>
+      <c r="B134" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C133" s="24" t="s">
+      <c r="C134" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D133" s="24" t="s">
+      <c r="D134" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E133" s="22"/>
-      <c r="I133" s="25"/>
-    </row>
-    <row r="134" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A134" s="26"/>
-      <c r="B134" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C134" s="27">
-        <v>0</v>
-      </c>
-      <c r="D134" s="11"/>
       <c r="E134" s="22"/>
+      <c r="I134" s="25"/>
     </row>
     <row r="135" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A135" s="26"/>
       <c r="B135" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C135" s="32">
-        <v>100000</v>
+        <v>73</v>
+      </c>
+      <c r="C135" s="27">
+        <v>0</v>
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="22"/>
@@ -3184,8 +3207,8 @@
       <c r="B136" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C136" s="27">
-        <v>0</v>
+      <c r="C136" s="32">
+        <v>250000</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="22"/>
@@ -3193,27 +3216,27 @@
     <row r="137" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A137" s="26"/>
       <c r="B137" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C137" s="27"/>
+        <v>74</v>
+      </c>
+      <c r="C137" s="27">
+        <v>0</v>
+      </c>
       <c r="D137" s="11"/>
       <c r="E137" s="22"/>
     </row>
     <row r="138" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A138" s="26"/>
       <c r="B138" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C138" s="27">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C138" s="27"/>
       <c r="D138" s="11"/>
       <c r="E138" s="22"/>
     </row>
     <row r="139" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A139" s="26"/>
       <c r="B139" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C139" s="27">
         <v>0</v>
@@ -3222,24 +3245,35 @@
       <c r="E139" s="22"/>
     </row>
     <row r="140" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A140" s="23"/>
-      <c r="B140" s="28" t="s">
+      <c r="A140" s="26"/>
+      <c r="B140" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C140" s="27">
+        <v>0</v>
+      </c>
+      <c r="D140" s="11"/>
+      <c r="E140" s="22"/>
+    </row>
+    <row r="141" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A141" s="23"/>
+      <c r="B141" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C140" s="29">
-        <f>SUM(C134:C139)</f>
-        <v>100000</v>
-      </c>
-      <c r="D140" s="30"/>
-      <c r="E140" s="22"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="3"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
+      <c r="C141" s="29">
+        <f>SUM(C135:C140)</f>
+        <v>250000</v>
+      </c>
+      <c r="D141" s="30"/>
+      <c r="E141" s="22"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="3"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E129">
+  <autoFilter ref="A4:E130">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3249,8 +3283,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="B133:D133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -10,15 +10,14 @@
     <sheet name="Daily Requisition" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$132</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="166">
   <si>
     <t>Model Name</t>
   </si>
@@ -437,9 +436,6 @@
     <t>i95</t>
   </si>
   <si>
-    <t>Blue Black, Gold, Black, Red Black</t>
-  </si>
-  <si>
     <t>V142</t>
   </si>
   <si>
@@ -503,13 +499,22 @@
     <t>L62</t>
   </si>
   <si>
-    <t>21.04.19</t>
-  </si>
-  <si>
     <t>Blue</t>
   </si>
   <si>
     <t>Black &amp; Gold</t>
+  </si>
+  <si>
+    <t>L23i</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>24.04.19</t>
+  </si>
+  <si>
+    <t>Black/ Gold</t>
   </si>
 </sst>
 </file>
@@ -1147,13 +1152,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G140" sqref="G140"/>
+      <selection pane="bottomRight" activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1177,7 +1182,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A2" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -1186,19 +1191,19 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A3" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1243,7 +1248,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="13">
-        <f t="shared" ref="D6:D91" si="0">C6*B6</f>
+        <f t="shared" ref="D6:D93" si="0">C6*B6</f>
         <v>0</v>
       </c>
       <c r="E6" s="11"/>
@@ -1261,113 +1266,115 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="11" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B8" s="12">
-        <v>901.24749999999995</v>
+        <v>769.92</v>
       </c>
       <c r="C8" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" s="13">
         <f>B8*C8</f>
-        <v>18024.949999999997</v>
+        <v>23097.599999999999</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="11" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="B9" s="12">
-        <v>858.14</v>
+        <v>901.24749999999995</v>
       </c>
       <c r="C9" s="11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D9" s="13">
-        <f t="shared" si="0"/>
-        <v>25744.2</v>
+        <f>B9*C9</f>
+        <v>18024.949999999997</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="11" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B10" s="12">
-        <v>946.36</v>
+        <v>858.14</v>
       </c>
       <c r="C10" s="11">
         <v>20</v>
       </c>
       <c r="D10" s="13">
         <f t="shared" si="0"/>
-        <v>18927.2</v>
+        <v>17162.8</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" hidden="1">
       <c r="A11" s="11" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="B11" s="12">
-        <v>882.2</v>
+        <v>946.36</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A12" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="15">
+      <c r="E11" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" hidden="1">
+      <c r="A12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12">
+        <v>882.2</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A13" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="15">
         <v>1258.1375</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" hidden="1">
-      <c r="A13" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="12">
-        <v>887.21</v>
-      </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="11"/>
+      <c r="D13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="15" hidden="1">
       <c r="A14" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B14" s="12">
-        <v>868.17</v>
+        <v>887.21</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="13">
@@ -1378,10 +1385,10 @@
     </row>
     <row r="15" spans="1:5" ht="15" hidden="1">
       <c r="A15" s="11" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B15" s="12">
-        <v>877.1875</v>
+        <v>868.17</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13">
@@ -1390,30 +1397,26 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="11" t="s">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="B16" s="12">
-        <v>1238.0875000000001</v>
-      </c>
-      <c r="C16" s="11">
-        <v>20</v>
-      </c>
+        <v>877.1875</v>
+      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="13">
         <f t="shared" si="0"/>
-        <v>24761.75</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="15" hidden="1">
       <c r="A17" s="11" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="B17" s="12">
-        <v>975.4325</v>
+        <v>1238.0875000000001</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="13">
@@ -1421,43 +1424,45 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A18" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" hidden="1">
+      <c r="A18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="12">
+        <v>975.4325</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A19" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B19" s="15">
         <v>985.46</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" hidden="1">
-      <c r="A19" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="12">
-        <v>946.36</v>
-      </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="11"/>
+      <c r="D19" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" ht="15" hidden="1">
       <c r="A20" s="11" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B20" s="12">
-        <v>1064.655</v>
+        <v>946.36</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="13">
@@ -1468,26 +1473,24 @@
     </row>
     <row r="21" spans="1:5" ht="15" hidden="1">
       <c r="A21" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="12">
-        <v>1430.5675000000001</v>
+        <v>1064.655</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>100</v>
-      </c>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" ht="15" hidden="1">
       <c r="A22" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="12">
-        <v>1538.8375000000001</v>
+        <v>1430.5675000000001</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="13">
@@ -1495,82 +1498,84 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" hidden="1">
       <c r="A23" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="12">
-        <v>1654.125</v>
+        <v>1538.8375000000001</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A24" s="14" t="s">
+      <c r="E23" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" hidden="1">
+      <c r="A24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1654.125</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A25" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B25" s="15">
         <v>980.44500000000005</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="16">
-        <f>C24*B24</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="16">
+        <f>C25*B25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" hidden="1">
-      <c r="A25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="12">
-        <v>940.34500000000003</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
       <c r="A26" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="12">
-        <v>975.4325</v>
+        <v>940.34500000000003</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>146</v>
-      </c>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="15" hidden="1">
       <c r="A27" s="11" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B27" s="12">
-        <v>1258.1400000000001</v>
+        <v>975.4325</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15" hidden="1">
       <c r="A28" s="11" t="s">
@@ -1581,33 +1586,31 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="13">
-        <f t="shared" ref="D28" si="1">C28*B28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A29" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="15">
-        <v>975.43</v>
+    <row r="29" spans="1:5" ht="15" hidden="1">
+      <c r="A29" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="12">
+        <v>1258.1400000000001</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="D29" s="13">
+        <f t="shared" ref="D29" si="1">C29*B29</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A30" s="14" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="B30" s="15">
-        <v>936.34</v>
+        <v>975.43</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="16">
@@ -1615,29 +1618,31 @@
         <v>0</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" hidden="1">
-      <c r="A31" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="12">
-        <v>955.38</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A31" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="15">
+        <v>936.34</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="11"/>
+      <c r="D31" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15" hidden="1">
       <c r="A32" s="11" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="B32" s="12">
-        <v>1014.53</v>
+        <v>955.38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="13">
@@ -1648,10 +1653,10 @@
     </row>
     <row r="33" spans="1:5" ht="15" hidden="1">
       <c r="A33" s="11" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="B33" s="12">
-        <v>1145.8575000000001</v>
+        <v>1014.53</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="13">
@@ -1660,58 +1665,58 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:5" ht="15" hidden="1">
+      <c r="A34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="12">
+        <v>1145.8575000000001</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A35" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B35" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" hidden="1">
-      <c r="A35" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="12">
-        <v>1264.1524999999999</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" hidden="1">
       <c r="A36" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="12">
-        <v>1165.9075</v>
+        <v>1264.1524999999999</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15" hidden="1">
       <c r="A37" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B37" s="12">
-        <v>2309.7600000000002</v>
+        <v>1165.9075</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="13">
@@ -1722,10 +1727,10 @@
     </row>
     <row r="38" spans="1:5" ht="15" hidden="1">
       <c r="A38" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="12">
-        <v>2556.375</v>
+        <v>2309.7600000000002</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="13">
@@ -1736,10 +1741,10 @@
     </row>
     <row r="39" spans="1:5" ht="15" hidden="1">
       <c r="A39" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="12">
-        <v>2731.8125</v>
+        <v>2556.375</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="13">
@@ -1750,10 +1755,10 @@
     </row>
     <row r="40" spans="1:5" ht="15" hidden="1">
       <c r="A40" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="12">
-        <v>2812.0124999999998</v>
+        <v>2731.8125</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="13">
@@ -1764,58 +1769,56 @@
     </row>
     <row r="41" spans="1:5" ht="15" hidden="1">
       <c r="A41" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="12">
-        <v>2714.77</v>
+        <v>2812.0124999999998</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="15" hidden="1">
       <c r="A42" s="11" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="B42" s="12">
-        <v>2788.96</v>
+        <v>2714.77</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>87</v>
+      <c r="E42" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="11" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="B43" s="12">
-        <v>6416</v>
+        <v>2788.96</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>82</v>
+      <c r="E43" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" hidden="1">
       <c r="A44" s="11" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="B44" s="12">
-        <v>6397.96</v>
+        <v>6416</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="13">
@@ -1823,31 +1826,33 @@
         <v>0</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" hidden="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15">
       <c r="A45" s="11" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B45" s="12">
-        <v>6057.11</v>
-      </c>
-      <c r="C45" s="11"/>
+        <v>6397.96</v>
+      </c>
+      <c r="C45" s="11">
+        <v>5</v>
+      </c>
       <c r="D45" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31989.8</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" hidden="1">
       <c r="A46" s="11" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="B46" s="12">
-        <v>5819.5124999999998</v>
+        <v>6057.11</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="13">
@@ -1860,40 +1865,40 @@
     </row>
     <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="12">
-        <v>6877.15</v>
+        <v>5819.5124999999998</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="11"/>
+      <c r="E47" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="12">
-        <v>6937.3</v>
+        <v>6877.15</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>134</v>
-      </c>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" ht="15" hidden="1">
       <c r="A49" s="11" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B49" s="12">
-        <v>7851.58</v>
+        <v>6937.3</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="13">
@@ -1901,47 +1906,47 @@
         <v>0</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" hidden="1">
       <c r="A50" s="11" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B50" s="12">
-        <v>7714.24</v>
+        <v>7851.58</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="11" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="B51" s="12">
-        <v>8225.5125000000007</v>
+        <v>7714.24</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="11" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="B52" s="12">
-        <v>7309.23</v>
+        <v>8225.5125000000007</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="13">
@@ -1949,15 +1954,15 @@
         <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="11" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="B53" s="12">
-        <v>8877.14</v>
+        <v>7309.23</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="13">
@@ -1965,15 +1970,15 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1">
       <c r="A54" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="12">
-        <v>8573.3799999999992</v>
+        <v>8877.14</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="13">
@@ -1981,15 +1986,15 @@
         <v>0</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" hidden="1">
       <c r="A55" s="11" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B55" s="12">
-        <v>8967.36</v>
+        <v>8573.3799999999992</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="13">
@@ -1997,75 +2002,79 @@
         <v>0</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" hidden="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15">
       <c r="A56" s="11" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B56" s="12">
-        <v>9012.48</v>
-      </c>
-      <c r="C56" s="11"/>
+        <v>8967.36</v>
+      </c>
+      <c r="C56" s="11">
+        <v>2</v>
+      </c>
       <c r="D56" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17934.72</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="11" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="B57" s="12">
-        <v>1199.9925000000001</v>
+        <v>9012.48</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="11"/>
+      <c r="E57" s="11" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="15" hidden="1">
       <c r="A58" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B58" s="31">
-        <v>7309.2275</v>
+        <v>32</v>
+      </c>
+      <c r="B58" s="12">
+        <v>1199.9925000000001</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" ht="15" hidden="1">
       <c r="A59" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="12">
-        <v>1423.55</v>
+        <v>138</v>
+      </c>
+      <c r="B59" s="31">
+        <v>7309.2275</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E59" s="11"/>
+      <c r="E59" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15" hidden="1">
       <c r="A60" s="11" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B60" s="12">
-        <v>1435.58</v>
+        <v>1423.55</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="13">
@@ -2076,10 +2085,10 @@
     </row>
     <row r="61" spans="1:5" ht="15" hidden="1">
       <c r="A61" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" s="12">
-        <v>1551.87</v>
+        <v>1435.58</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="13">
@@ -2090,10 +2099,10 @@
     </row>
     <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" s="12">
-        <v>1695.2275</v>
+        <v>1551.87</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="13">
@@ -2104,10 +2113,10 @@
     </row>
     <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="11" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B63" s="12">
-        <v>1067.6624999999999</v>
+        <v>1695.2275</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="13">
@@ -2118,40 +2127,40 @@
     </row>
     <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B64" s="31">
-        <v>5310.2425000000003</v>
+        <v>24</v>
+      </c>
+      <c r="B64" s="12">
+        <v>1067.6624999999999</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E64" s="11" t="s">
-        <v>152</v>
-      </c>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="15" hidden="1">
       <c r="A65" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="12">
-        <v>1106.76</v>
+        <v>139</v>
+      </c>
+      <c r="B65" s="31">
+        <v>5310.2425000000003</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E65" s="11"/>
+      <c r="E65" s="11" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="15" hidden="1">
       <c r="A66" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66" s="12">
-        <v>1145.8575000000001</v>
+        <v>1106.76</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="13">
@@ -2160,42 +2169,44 @@
       </c>
       <c r="E66" s="11"/>
     </row>
-    <row r="67" spans="1:5" ht="15" hidden="1">
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="11" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="B67" s="12">
-        <v>1135.8325</v>
-      </c>
-      <c r="C67" s="11"/>
+        <v>1072.675</v>
+      </c>
+      <c r="C67" s="11">
+        <v>10</v>
+      </c>
       <c r="D67" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="11"/>
+        <f>B67*C67</f>
+        <v>10726.75</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="15" hidden="1">
       <c r="A68" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B68" s="31">
-        <v>4165.3874999999998</v>
+        <v>26</v>
+      </c>
+      <c r="B68" s="12">
+        <v>1145.8575000000001</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E68" s="11" t="s">
-        <v>89</v>
-      </c>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" ht="15" hidden="1">
       <c r="A69" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69" s="12">
-        <v>1174.93</v>
+        <v>1135.8325</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="13">
@@ -2204,30 +2215,28 @@
       </c>
       <c r="E69" s="11"/>
     </row>
-    <row r="70" spans="1:5" ht="15">
+    <row r="70" spans="1:5" ht="15" hidden="1">
       <c r="A70" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B70" s="12">
-        <v>1014.53</v>
-      </c>
-      <c r="C70" s="11">
-        <v>40</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B70" s="31">
+        <v>4165.3874999999998</v>
+      </c>
+      <c r="C70" s="11"/>
       <c r="D70" s="13">
-        <f>SUM(B70*C70)</f>
-        <v>40581.199999999997</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" hidden="1">
       <c r="A71" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B71" s="12">
-        <v>1273.175</v>
+        <v>1174.93</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="13">
@@ -2236,26 +2245,30 @@
       </c>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="1:5" ht="15" hidden="1">
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="11" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="B72" s="12">
-        <v>1077.6875</v>
-      </c>
-      <c r="C72" s="11"/>
+        <v>1014.53</v>
+      </c>
+      <c r="C72" s="11">
+        <v>20</v>
+      </c>
       <c r="D72" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11"/>
+        <f>B72*C72</f>
+        <v>20290.599999999999</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="15" hidden="1">
       <c r="A73" s="11" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="B73" s="12">
-        <v>1101.75</v>
+        <v>1273.175</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="13">
@@ -2266,28 +2279,28 @@
     </row>
     <row r="74" spans="1:5" ht="15">
       <c r="A74" s="11" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="B74" s="12">
-        <v>1072.675</v>
+        <v>1077.6875</v>
       </c>
       <c r="C74" s="11">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D74" s="13">
-        <f>C74*B74</f>
-        <v>32180.25</v>
+        <f t="shared" si="0"/>
+        <v>10776.875</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" hidden="1">
       <c r="A75" s="11" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="B75" s="12">
-        <v>1303.25</v>
+        <v>1101.75</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="13">
@@ -2298,24 +2311,26 @@
     </row>
     <row r="76" spans="1:5" ht="15" hidden="1">
       <c r="A76" s="11" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="B76" s="12">
-        <v>8150.3249999999998</v>
+        <v>1072.675</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11"/>
+        <f>C76*B76</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="15" hidden="1">
       <c r="A77" s="11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B77" s="12">
-        <v>9067.6124999999993</v>
+        <v>1303.25</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="13">
@@ -2326,26 +2341,24 @@
     </row>
     <row r="78" spans="1:5" ht="15" hidden="1">
       <c r="A78" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B78" s="12">
-        <v>8565.36</v>
+        <v>8150.3249999999998</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E78" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" ht="15" hidden="1">
       <c r="A79" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B79" s="12">
-        <v>11854.5625</v>
+        <v>9067.6124999999993</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="13">
@@ -2356,42 +2369,40 @@
     </row>
     <row r="80" spans="1:5" ht="15" hidden="1">
       <c r="A80" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B80" s="12">
-        <v>10616.475</v>
+        <v>8565.36</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" hidden="1">
       <c r="A81" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B81" s="12">
-        <v>12215.4625</v>
+        <v>11854.5625</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E81" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" ht="15" hidden="1">
       <c r="A82" s="11" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B82" s="12">
-        <v>12691.65</v>
+        <v>10616.475</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="13">
@@ -2399,15 +2410,15 @@
         <v>0</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" hidden="1">
       <c r="A83" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B83" s="12">
-        <v>9097.6875</v>
+        <v>12215.4625</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="13">
@@ -2415,15 +2426,15 @@
         <v>0</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" hidden="1">
       <c r="A84" s="11" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B84" s="12">
-        <v>10285.65</v>
+        <v>12691.65</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="13">
@@ -2431,15 +2442,15 @@
         <v>0</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" hidden="1">
       <c r="A85" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B85" s="12">
-        <v>6342.8175000000001</v>
+        <v>9097.6875</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="13">
@@ -2452,100 +2463,102 @@
     </row>
     <row r="86" spans="1:5" ht="15" hidden="1">
       <c r="A86" s="11" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="B86" s="12">
-        <v>17443.5</v>
+        <v>10285.65</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E86" s="11"/>
+      <c r="E86" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="87" spans="1:5" ht="15" hidden="1">
       <c r="A87" s="11" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="B87" s="12">
-        <v>13914.7</v>
+        <v>6342.8175000000001</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E87" s="11"/>
+      <c r="E87" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="88" spans="1:5" ht="15" hidden="1">
       <c r="A88" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B88" s="12">
-        <v>12501.18</v>
+        <v>17443.5</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="13">
-        <f t="shared" ref="D88" si="2">C88*B88</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" ht="15" hidden="1">
       <c r="A89" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B89" s="12">
-        <v>23704.11</v>
+        <v>13914.7</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="13">
-        <f t="shared" ref="D89" si="3">C89*B89</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" ht="15" hidden="1">
       <c r="A90" s="11" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="B90" s="12">
-        <v>1371.42</v>
+        <v>12501.18</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>82</v>
-      </c>
+        <f t="shared" ref="D90" si="2">C90*B90</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" ht="15" hidden="1">
       <c r="A91" s="11" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B91" s="12">
-        <v>1410.5174999999999</v>
+        <v>23704.11</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D91" si="3">C91*B91</f>
         <v>0</v>
       </c>
       <c r="E91" s="11"/>
     </row>
     <row r="92" spans="1:5" ht="15" hidden="1">
       <c r="A92" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B92" s="12">
-        <v>1694.2249999999999</v>
+        <v>1371.42</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="13">
-        <f t="shared" ref="D92:D130" si="4">C92*B92</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E92" s="11" t="s">
@@ -2554,40 +2567,40 @@
     </row>
     <row r="93" spans="1:5" ht="15" hidden="1">
       <c r="A93" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B93" s="17">
-        <v>1219.04</v>
+        <v>47</v>
+      </c>
+      <c r="B93" s="12">
+        <v>1410.5174999999999</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E93" s="11"/>
     </row>
     <row r="94" spans="1:5" ht="15" hidden="1">
       <c r="A94" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B94" s="18">
-        <v>1336.33</v>
+        <v>48</v>
+      </c>
+      <c r="B94" s="12">
+        <v>1694.2249999999999</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D94:D132" si="4">C94*B94</f>
         <v>0</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" hidden="1">
       <c r="A95" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B95" s="12">
-        <v>1871.6675</v>
+        <v>124</v>
+      </c>
+      <c r="B95" s="17">
+        <v>1219.04</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="13">
@@ -2596,26 +2609,30 @@
       </c>
       <c r="E95" s="11"/>
     </row>
-    <row r="96" spans="1:5" ht="15" hidden="1">
+    <row r="96" spans="1:5" ht="15">
       <c r="A96" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B96" s="12">
-        <v>1854.625</v>
-      </c>
-      <c r="C96" s="11"/>
+        <v>129</v>
+      </c>
+      <c r="B96" s="18">
+        <v>1336.33</v>
+      </c>
+      <c r="C96" s="11">
+        <v>20</v>
+      </c>
       <c r="D96" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11"/>
+        <v>26726.6</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="97" spans="1:5" ht="15" hidden="1">
       <c r="A97" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B97" s="12">
-        <v>1446.6075000000001</v>
+        <v>1871.6675</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="13">
@@ -2626,42 +2643,38 @@
     </row>
     <row r="98" spans="1:5" ht="15" hidden="1">
       <c r="A98" s="11" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="B98" s="12">
-        <v>7586.92</v>
+        <v>1854.625</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E98" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" ht="15" hidden="1">
       <c r="A99" s="11" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B99" s="12">
-        <v>8641.5499999999993</v>
+        <v>1446.6075000000001</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E99" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="E99" s="11"/>
     </row>
     <row r="100" spans="1:5" ht="15" hidden="1">
       <c r="A100" s="11" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B100" s="12">
-        <v>5183.9274999999998</v>
+        <v>7586.92</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="13">
@@ -2669,15 +2682,15 @@
         <v>0</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" hidden="1">
       <c r="A101" s="11" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B101" s="12">
-        <v>5455.6049999999996</v>
+        <v>8641.5499999999993</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="13">
@@ -2685,15 +2698,15 @@
         <v>0</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" hidden="1">
       <c r="A102" s="11" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B102" s="12">
-        <v>5510.74</v>
+        <v>5183.9274999999998</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="13">
@@ -2706,10 +2719,10 @@
     </row>
     <row r="103" spans="1:5" ht="15" hidden="1">
       <c r="A103" s="11" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B103" s="12">
-        <v>4896.21</v>
+        <v>5455.6049999999996</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="13">
@@ -2722,10 +2735,10 @@
     </row>
     <row r="104" spans="1:5" ht="15" hidden="1">
       <c r="A104" s="11" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B104" s="12">
-        <v>5150.8500000000004</v>
+        <v>5510.74</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="13">
@@ -2733,15 +2746,15 @@
         <v>0</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" hidden="1">
       <c r="A105" s="11" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B105" s="12">
-        <v>5310.24</v>
+        <v>4896.21</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="13">
@@ -2749,15 +2762,15 @@
         <v>0</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" hidden="1">
       <c r="A106" s="11" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B106" s="12">
-        <v>5423.53</v>
+        <v>5150.8500000000004</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="13">
@@ -2765,35 +2778,35 @@
         <v>0</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" hidden="1">
       <c r="A107" s="11" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="B107" s="12">
-        <v>5940.82</v>
+        <v>5310.24</v>
       </c>
       <c r="C107" s="11"/>
       <c r="D107" s="13">
-        <f t="shared" ref="D107:D108" si="5">C107*B107</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" hidden="1">
       <c r="A108" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B108" s="12">
-        <v>5257.11</v>
+        <v>5423.53</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E108" s="11" t="s">
@@ -2802,14 +2815,14 @@
     </row>
     <row r="109" spans="1:5" ht="15" hidden="1">
       <c r="A109" s="11" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="B109" s="12">
-        <v>2900.2325000000001</v>
+        <v>5940.82</v>
       </c>
       <c r="C109" s="11"/>
       <c r="D109" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D109:D110" si="5">C109*B109</f>
         <v>0</v>
       </c>
       <c r="E109" s="11" t="s">
@@ -2818,40 +2831,42 @@
     </row>
     <row r="110" spans="1:5" ht="15" hidden="1">
       <c r="A110" s="11" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="B110" s="12">
-        <v>3143.84</v>
+        <v>5257.11</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" hidden="1">
       <c r="A111" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B111" s="12">
-        <v>3518.7750000000001</v>
+        <v>2900.2325000000001</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E111" s="11"/>
+      <c r="E111" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="112" spans="1:5" ht="15" hidden="1">
       <c r="A112" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B112" s="12">
-        <v>3556.87</v>
+        <v>3143.84</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="13">
@@ -2859,31 +2874,29 @@
         <v>0</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" hidden="1">
       <c r="A113" s="11" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="B113" s="12">
-        <v>3471.66</v>
+        <v>3518.7750000000001</v>
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E113" s="11" t="s">
-        <v>145</v>
-      </c>
+      <c r="E113" s="11"/>
     </row>
     <row r="114" spans="1:5" ht="15" hidden="1">
       <c r="A114" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B114" s="12">
-        <v>3919.7750000000001</v>
+        <v>3556.87</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="13">
@@ -2891,31 +2904,33 @@
         <v>0</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15" hidden="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15">
       <c r="A115" s="11" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="B115" s="12">
-        <v>4534.3074999999999</v>
-      </c>
-      <c r="C115" s="11"/>
+        <v>3471.66</v>
+      </c>
+      <c r="C115" s="11">
+        <v>2</v>
+      </c>
       <c r="D115" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6943.32</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" hidden="1">
       <c r="A116" s="11" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="B116" s="12">
-        <v>3433.56</v>
+        <v>3919.7750000000001</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="13">
@@ -2923,93 +2938,97 @@
         <v>0</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" hidden="1">
       <c r="A117" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B117" s="12">
-        <v>4476.1625000000004</v>
+        <v>4534.3074999999999</v>
       </c>
       <c r="C117" s="11"/>
       <c r="D117" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E117" s="11"/>
+      <c r="E117" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="118" spans="1:5" ht="15">
       <c r="A118" s="11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B118" s="12">
-        <v>4575.41</v>
+        <v>3433.56</v>
       </c>
       <c r="C118" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D118" s="13">
         <f t="shared" si="4"/>
-        <v>22877.05</v>
+        <v>6867.12</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" hidden="1">
       <c r="A119" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B119" s="12">
-        <v>5269.14</v>
+        <v>4476.1625000000004</v>
       </c>
       <c r="C119" s="11"/>
       <c r="D119" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E119" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15" hidden="1">
+      <c r="E119" s="11"/>
+    </row>
+    <row r="120" spans="1:5" ht="15">
       <c r="A120" s="11" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="B120" s="12">
-        <v>5921.7674999999999</v>
-      </c>
-      <c r="C120" s="11"/>
+        <v>4575.41</v>
+      </c>
+      <c r="C120" s="11">
+        <v>4</v>
+      </c>
       <c r="D120" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>18301.64</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="12" hidden="1" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" hidden="1">
       <c r="A121" s="11" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="B121" s="12">
-        <v>4849.09</v>
+        <v>5269.14</v>
       </c>
       <c r="C121" s="11"/>
       <c r="D121" s="13">
-        <f>C121*B121</f>
-        <v>0</v>
-      </c>
-      <c r="E121" s="11"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="122" spans="1:5" ht="15" hidden="1">
       <c r="A122" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B122" s="12">
-        <v>3934.8125</v>
+        <v>5921.7674999999999</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="13">
@@ -3020,30 +3039,26 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15">
+    <row r="123" spans="1:5" ht="12" hidden="1" customHeight="1">
       <c r="A123" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B123" s="12">
-        <v>4027.0425</v>
-      </c>
-      <c r="C123" s="11">
-        <v>5</v>
-      </c>
+        <v>4849.09</v>
+      </c>
+      <c r="C123" s="11"/>
       <c r="D123" s="13">
-        <f t="shared" si="4"/>
-        <v>20135.212500000001</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>163</v>
-      </c>
+        <f>C123*B123</f>
+        <v>0</v>
+      </c>
+      <c r="E123" s="11"/>
     </row>
     <row r="124" spans="1:5" ht="15" hidden="1">
       <c r="A124" s="11" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="B124" s="12">
-        <v>3892.71</v>
+        <v>3934.8125</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="13">
@@ -3051,15 +3066,15 @@
         <v>0</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" hidden="1">
       <c r="A125" s="11" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="B125" s="12">
-        <v>4507.24</v>
+        <v>4027.0425</v>
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="13">
@@ -3067,15 +3082,15 @@
         <v>0</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" hidden="1">
       <c r="A126" s="11" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B126" s="12">
-        <v>4409</v>
+        <v>3892.71</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="13">
@@ -3083,15 +3098,15 @@
         <v>0</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" hidden="1">
       <c r="A127" s="11" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="B127" s="12">
-        <v>4165.3900000000003</v>
+        <v>4507.24</v>
       </c>
       <c r="C127" s="11"/>
       <c r="D127" s="13">
@@ -3099,47 +3114,49 @@
         <v>0</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" hidden="1">
       <c r="A128" s="11" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B128" s="12">
-        <v>4252.6099999999997</v>
-      </c>
-      <c r="C128" s="11">
-        <v>10</v>
-      </c>
+        <v>4409</v>
+      </c>
+      <c r="C128" s="11"/>
       <c r="D128" s="13">
         <f t="shared" si="4"/>
-        <v>42526.1</v>
+        <v>0</v>
       </c>
       <c r="E128" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15" hidden="1">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="11" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="B129" s="12">
-        <v>12741.775</v>
-      </c>
-      <c r="C129" s="11"/>
+        <v>4165.3900000000003</v>
+      </c>
+      <c r="C129" s="11">
+        <v>5</v>
+      </c>
       <c r="D129" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E129" s="11"/>
+        <v>20826.95</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="130" spans="1:9" ht="15" hidden="1">
       <c r="A130" s="11" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B130" s="12">
-        <v>12310.7</v>
+        <v>4252.6099999999997</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="13">
@@ -3147,76 +3164,84 @@
         <v>0</v>
       </c>
       <c r="E130" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15" hidden="1">
+      <c r="A131" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B131" s="12">
+        <v>12741.775</v>
+      </c>
+      <c r="C131" s="11"/>
+      <c r="D131" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E131" s="11"/>
+    </row>
+    <row r="132" spans="1:9" ht="15" hidden="1">
+      <c r="A132" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B132" s="12">
+        <v>12310.7</v>
+      </c>
+      <c r="C132" s="11"/>
+      <c r="D132" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E132" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="2" customFormat="1" ht="15">
-      <c r="A131" s="39" t="s">
+    <row r="133" spans="1:9" s="2" customFormat="1" ht="15">
+      <c r="A133" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B131" s="39"/>
-      <c r="C131" s="19">
-        <f>SUBTOTAL(9,C9:C130)</f>
-        <v>160</v>
-      </c>
-      <c r="D131" s="20">
-        <f>SUBTOTAL(9,D8:D130)</f>
-        <v>245757.91249999998</v>
-      </c>
-      <c r="E131" s="19"/>
-    </row>
-    <row r="132" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A132" s="3"/>
-    </row>
-    <row r="133" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A133" s="21"/>
-      <c r="B133" s="40" t="s">
+      <c r="B133" s="39"/>
+      <c r="C133" s="19">
+        <f>SUBTOTAL(9,C10:C132)</f>
+        <v>100</v>
+      </c>
+      <c r="D133" s="20">
+        <f>SUBTOTAL(9,D8:D132)</f>
+        <v>229669.72500000003</v>
+      </c>
+      <c r="E133" s="19"/>
+    </row>
+    <row r="134" spans="1:9" ht="9.75" customHeight="1">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="135" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A135" s="21"/>
+      <c r="B135" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C133" s="40"/>
-      <c r="D133" s="40"/>
-      <c r="E133" s="22"/>
-    </row>
-    <row r="134" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A134" s="23"/>
-      <c r="B134" s="24" t="s">
+      <c r="C135" s="40"/>
+      <c r="D135" s="40"/>
+      <c r="E135" s="22"/>
+    </row>
+    <row r="136" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A136" s="23"/>
+      <c r="B136" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C134" s="24" t="s">
+      <c r="C136" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D134" s="24" t="s">
+      <c r="D136" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E134" s="22"/>
-      <c r="I134" s="25"/>
-    </row>
-    <row r="135" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A135" s="26"/>
-      <c r="B135" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C135" s="27">
-        <v>0</v>
-      </c>
-      <c r="D135" s="11"/>
-      <c r="E135" s="22"/>
-    </row>
-    <row r="136" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A136" s="26"/>
-      <c r="B136" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C136" s="32">
-        <v>250000</v>
-      </c>
-      <c r="D136" s="11"/>
       <c r="E136" s="22"/>
+      <c r="I136" s="25"/>
     </row>
     <row r="137" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A137" s="26"/>
       <c r="B137" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C137" s="27">
         <v>0</v>
@@ -3227,16 +3252,18 @@
     <row r="138" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A138" s="26"/>
       <c r="B138" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C138" s="27"/>
+        <v>74</v>
+      </c>
+      <c r="C138" s="32">
+        <v>230000</v>
+      </c>
       <c r="D138" s="11"/>
       <c r="E138" s="22"/>
     </row>
     <row r="139" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A139" s="26"/>
       <c r="B139" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C139" s="27">
         <v>0</v>
@@ -3247,33 +3274,53 @@
     <row r="140" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A140" s="26"/>
       <c r="B140" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C140" s="27">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C140" s="27"/>
       <c r="D140" s="11"/>
       <c r="E140" s="22"/>
     </row>
     <row r="141" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A141" s="23"/>
-      <c r="B141" s="28" t="s">
+      <c r="A141" s="26"/>
+      <c r="B141" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C141" s="27">
+        <v>0</v>
+      </c>
+      <c r="D141" s="11"/>
+      <c r="E141" s="22"/>
+    </row>
+    <row r="142" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A142" s="26"/>
+      <c r="B142" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C142" s="27">
+        <v>0</v>
+      </c>
+      <c r="D142" s="11"/>
+      <c r="E142" s="22"/>
+    </row>
+    <row r="143" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A143" s="23"/>
+      <c r="B143" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C141" s="29">
-        <f>SUM(C135:C140)</f>
-        <v>250000</v>
-      </c>
-      <c r="D141" s="30"/>
-      <c r="E141" s="22"/>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="3"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
+      <c r="C143" s="29">
+        <f>SUM(C137:C142)</f>
+        <v>230000</v>
+      </c>
+      <c r="D143" s="30"/>
+      <c r="E143" s="22"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="3"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E130">
+  <autoFilter ref="A4:E132">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3283,8 +3330,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="B135:D135"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7155"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
   <si>
     <t>Model Name</t>
   </si>
@@ -325,9 +325,6 @@
     <t>BL110</t>
   </si>
   <si>
-    <t>V78</t>
-  </si>
-  <si>
     <t>D52j</t>
   </si>
   <si>
@@ -499,15 +496,9 @@
     <t>L62</t>
   </si>
   <si>
-    <t>Blue</t>
-  </si>
-  <si>
     <t>Black &amp; Gold</t>
   </si>
   <si>
-    <t>L23i</t>
-  </si>
-  <si>
     <t>B23</t>
   </si>
   <si>
@@ -515,6 +506,12 @@
   </si>
   <si>
     <t>Black/ Gold</t>
+  </si>
+  <si>
+    <t>L55i</t>
+  </si>
+  <si>
+    <t>L250</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1155,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C136" sqref="C136"/>
+      <selection pane="bottomRight" activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1182,7 +1179,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A2" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -1191,19 +1188,19 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A3" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1255,7 +1252,7 @@
     </row>
     <row r="7" spans="1:5" ht="15" hidden="1">
       <c r="A7" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="12">
         <v>789.97</v>
@@ -1266,61 +1263,55 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" hidden="1">
       <c r="A8" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B8" s="12">
         <v>769.92</v>
       </c>
-      <c r="C8" s="11">
-        <v>30</v>
-      </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="13">
         <f>B8*C8</f>
-        <v>23097.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="12">
         <v>901.24749999999995</v>
       </c>
-      <c r="C9" s="11">
-        <v>20</v>
-      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="13">
         <f>B9*C9</f>
-        <v>18024.949999999997</v>
+        <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" hidden="1">
       <c r="A10" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="12">
         <v>858.14</v>
       </c>
-      <c r="C10" s="11">
-        <v>20</v>
-      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="13">
         <f t="shared" si="0"/>
-        <v>17162.8</v>
+        <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" hidden="1">
@@ -1336,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" hidden="1">
@@ -1355,7 +1346,7 @@
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A13" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="15">
         <v>1258.1375</v>
@@ -1366,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" hidden="1">
@@ -1413,7 +1404,7 @@
     </row>
     <row r="17" spans="1:5" ht="15" hidden="1">
       <c r="A17" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="12">
         <v>1238.0875000000001</v>
@@ -1440,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1574,12 +1565,12 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" hidden="1">
       <c r="A28" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="12">
         <v>1258.1400000000001</v>
@@ -1593,7 +1584,7 @@
     </row>
     <row r="29" spans="1:5" ht="15" hidden="1">
       <c r="A29" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="12">
         <v>1258.1400000000001</v>
@@ -1623,7 +1614,7 @@
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A31" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B31" s="15">
         <v>936.34</v>
@@ -1634,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" hidden="1">
@@ -1653,7 +1644,7 @@
     </row>
     <row r="33" spans="1:5" ht="15" hidden="1">
       <c r="A33" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33" s="12">
         <v>1014.53</v>
@@ -1681,7 +1672,7 @@
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="15">
         <v>1159.8900000000001</v>
@@ -1708,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" hidden="1">
@@ -1799,7 +1790,7 @@
     </row>
     <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B43" s="12">
         <v>2788.96</v>
@@ -1829,27 +1820,25 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15">
+    <row r="45" spans="1:5" ht="15" hidden="1">
       <c r="A45" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45" s="12">
         <v>6397.96</v>
       </c>
-      <c r="C45" s="11">
-        <v>5</v>
-      </c>
+      <c r="C45" s="11"/>
       <c r="D45" s="13">
         <f t="shared" si="0"/>
-        <v>31989.8</v>
+        <v>0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" hidden="1">
       <c r="A46" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" s="12">
         <v>6057.11</v>
@@ -1906,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" hidden="1">
@@ -1927,7 +1916,7 @@
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" s="12">
         <v>7714.24</v>
@@ -1959,7 +1948,7 @@
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B53" s="12">
         <v>7309.23</v>
@@ -1970,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1">
@@ -2005,19 +1994,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15">
+    <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56" s="12">
         <v>8967.36</v>
       </c>
-      <c r="C56" s="11">
-        <v>2</v>
-      </c>
+      <c r="C56" s="11"/>
       <c r="D56" s="13">
         <f t="shared" si="0"/>
-        <v>17934.72</v>
+        <v>0</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>82</v>
@@ -2025,7 +2012,7 @@
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B57" s="12">
         <v>9012.48</v>
@@ -2036,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" hidden="1">
@@ -2055,7 +2042,7 @@
     </row>
     <row r="59" spans="1:5" ht="15" hidden="1">
       <c r="A59" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B59" s="31">
         <v>7309.2275</v>
@@ -2141,7 +2128,7 @@
     </row>
     <row r="65" spans="1:5" ht="15" hidden="1">
       <c r="A65" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B65" s="31">
         <v>5310.2425000000003</v>
@@ -2152,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" hidden="1">
@@ -2171,20 +2158,20 @@
     </row>
     <row r="67" spans="1:5" ht="15">
       <c r="A67" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B67" s="12">
-        <v>1072.675</v>
+        <v>1024.56</v>
       </c>
       <c r="C67" s="11">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D67" s="13">
         <f>B67*C67</f>
-        <v>10726.75</v>
+        <v>61473.599999999999</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" hidden="1">
@@ -2217,7 +2204,7 @@
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
       <c r="A70" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B70" s="31">
         <v>4165.3874999999998</v>
@@ -2245,22 +2232,20 @@
       </c>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="1:5" ht="15">
+    <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B72" s="12">
         <v>1014.53</v>
       </c>
-      <c r="C72" s="11">
-        <v>20</v>
-      </c>
+      <c r="C72" s="11"/>
       <c r="D72" s="13">
         <f>B72*C72</f>
-        <v>20290.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" hidden="1">
@@ -2277,19 +2262,17 @@
       </c>
       <c r="E73" s="11"/>
     </row>
-    <row r="74" spans="1:5" ht="15">
+    <row r="74" spans="1:5" ht="15" hidden="1">
       <c r="A74" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B74" s="12">
         <v>1077.6875</v>
       </c>
-      <c r="C74" s="11">
-        <v>10</v>
-      </c>
+      <c r="C74" s="11"/>
       <c r="D74" s="13">
         <f t="shared" si="0"/>
-        <v>10776.875</v>
+        <v>0</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>89</v>
@@ -2297,7 +2280,7 @@
     </row>
     <row r="75" spans="1:5" ht="15" hidden="1">
       <c r="A75" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" s="12">
         <v>1101.75</v>
@@ -2311,7 +2294,7 @@
     </row>
     <row r="76" spans="1:5" ht="15" hidden="1">
       <c r="A76" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B76" s="12">
         <v>1072.675</v>
@@ -2322,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" hidden="1">
@@ -2442,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" hidden="1">
@@ -2495,7 +2478,7 @@
     </row>
     <row r="88" spans="1:5" ht="15" hidden="1">
       <c r="A88" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B88" s="12">
         <v>17443.5</v>
@@ -2509,7 +2492,7 @@
     </row>
     <row r="89" spans="1:5" ht="15" hidden="1">
       <c r="A89" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B89" s="12">
         <v>13914.7</v>
@@ -2523,7 +2506,7 @@
     </row>
     <row r="90" spans="1:5" ht="15" hidden="1">
       <c r="A90" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B90" s="12">
         <v>12501.18</v>
@@ -2537,7 +2520,7 @@
     </row>
     <row r="91" spans="1:5" ht="15" hidden="1">
       <c r="A91" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B91" s="12">
         <v>23704.11</v>
@@ -2597,7 +2580,7 @@
     </row>
     <row r="95" spans="1:5" ht="15" hidden="1">
       <c r="A95" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B95" s="17">
         <v>1219.04</v>
@@ -2609,19 +2592,17 @@
       </c>
       <c r="E95" s="11"/>
     </row>
-    <row r="96" spans="1:5" ht="15">
+    <row r="96" spans="1:5" ht="15" hidden="1">
       <c r="A96" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B96" s="18">
         <v>1336.33</v>
       </c>
-      <c r="C96" s="11">
-        <v>20</v>
-      </c>
+      <c r="C96" s="11"/>
       <c r="D96" s="13">
         <f t="shared" si="4"/>
-        <v>26726.6</v>
+        <v>0</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>87</v>
@@ -2751,7 +2732,7 @@
     </row>
     <row r="105" spans="1:5" ht="15" hidden="1">
       <c r="A105" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="12">
         <v>4896.21</v>
@@ -2767,7 +2748,7 @@
     </row>
     <row r="106" spans="1:5" ht="15" hidden="1">
       <c r="A106" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" s="12">
         <v>5150.8500000000004</v>
@@ -2778,12 +2759,12 @@
         <v>0</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" hidden="1">
       <c r="A107" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B107" s="12">
         <v>5310.24</v>
@@ -2794,12 +2775,12 @@
         <v>0</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" hidden="1">
       <c r="A108" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B108" s="12">
         <v>5423.53</v>
@@ -2815,7 +2796,7 @@
     </row>
     <row r="109" spans="1:5" ht="15" hidden="1">
       <c r="A109" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B109" s="12">
         <v>5940.82</v>
@@ -2831,7 +2812,7 @@
     </row>
     <row r="110" spans="1:5" ht="15" hidden="1">
       <c r="A110" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B110" s="12">
         <v>5257.11</v>
@@ -2907,22 +2888,20 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15">
+    <row r="115" spans="1:5" ht="15" hidden="1">
       <c r="A115" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B115" s="12">
         <v>3471.66</v>
       </c>
-      <c r="C115" s="11">
-        <v>2</v>
-      </c>
+      <c r="C115" s="11"/>
       <c r="D115" s="13">
         <f t="shared" si="4"/>
-        <v>6943.32</v>
+        <v>0</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" hidden="1">
@@ -2957,22 +2936,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15">
+    <row r="118" spans="1:5" ht="15" hidden="1">
       <c r="A118" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B118" s="12">
         <v>3433.56</v>
       </c>
-      <c r="C118" s="11">
-        <v>2</v>
-      </c>
+      <c r="C118" s="11"/>
       <c r="D118" s="13">
         <f t="shared" si="4"/>
-        <v>6867.12</v>
+        <v>0</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" hidden="1">
@@ -2989,22 +2966,20 @@
       </c>
       <c r="E119" s="11"/>
     </row>
-    <row r="120" spans="1:5" ht="15">
+    <row r="120" spans="1:5" ht="15" hidden="1">
       <c r="A120" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B120" s="12">
         <v>4575.41</v>
       </c>
-      <c r="C120" s="11">
-        <v>4</v>
-      </c>
+      <c r="C120" s="11"/>
       <c r="D120" s="13">
         <f t="shared" si="4"/>
-        <v>18301.64</v>
+        <v>0</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" hidden="1">
@@ -3039,19 +3014,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="12" hidden="1" customHeight="1">
+    <row r="123" spans="1:5" ht="12" customHeight="1">
       <c r="A123" s="11" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="B123" s="12">
-        <v>4849.09</v>
-      </c>
-      <c r="C123" s="11"/>
+        <v>1170.92</v>
+      </c>
+      <c r="C123" s="11">
+        <v>20</v>
+      </c>
       <c r="D123" s="13">
         <f>C123*B123</f>
-        <v>0</v>
-      </c>
-      <c r="E123" s="11"/>
+        <v>23418.400000000001</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="124" spans="1:5" ht="15" hidden="1">
       <c r="A124" s="11" t="s">
@@ -3071,7 +3050,7 @@
     </row>
     <row r="125" spans="1:5" ht="15" hidden="1">
       <c r="A125" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B125" s="12">
         <v>4027.0425</v>
@@ -3082,12 +3061,12 @@
         <v>0</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" hidden="1">
       <c r="A126" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" s="12">
         <v>3892.71</v>
@@ -3098,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" hidden="1">
@@ -3119,7 +3098,7 @@
     </row>
     <row r="128" spans="1:5" ht="15" hidden="1">
       <c r="A128" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B128" s="12">
         <v>4409</v>
@@ -3133,27 +3112,25 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15" hidden="1">
       <c r="A129" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B129" s="12">
         <v>4165.3900000000003</v>
       </c>
-      <c r="C129" s="11">
-        <v>5</v>
-      </c>
+      <c r="C129" s="11"/>
       <c r="D129" s="13">
         <f t="shared" si="4"/>
-        <v>20826.95</v>
+        <v>0</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" hidden="1">
       <c r="A130" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B130" s="12">
         <v>4252.6099999999997</v>
@@ -3204,11 +3181,11 @@
       <c r="B133" s="39"/>
       <c r="C133" s="19">
         <f>SUBTOTAL(9,C10:C132)</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D133" s="20">
-        <f>SUBTOTAL(9,D8:D132)</f>
-        <v>229669.72500000003</v>
+        <f>SUBTOTAL(9,D67:D132)</f>
+        <v>84892</v>
       </c>
       <c r="E133" s="19"/>
     </row>
@@ -3255,7 +3232,7 @@
         <v>74</v>
       </c>
       <c r="C138" s="32">
-        <v>230000</v>
+        <v>60000</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="22"/>
@@ -3309,7 +3286,7 @@
       </c>
       <c r="C143" s="29">
         <f>SUM(C137:C142)</f>
-        <v>230000</v>
+        <v>60000</v>
       </c>
       <c r="D143" s="30"/>
       <c r="E143" s="22"/>

--- a/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="169">
   <si>
     <t>Model Name</t>
   </si>
@@ -451,9 +451,6 @@
     <t>Mixed</t>
   </si>
   <si>
-    <t>Black,White</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
@@ -502,9 +499,6 @@
     <t>B23</t>
   </si>
   <si>
-    <t>24.04.19</t>
-  </si>
-  <si>
     <t>Black/ Gold</t>
   </si>
   <si>
@@ -512,6 +506,24 @@
   </si>
   <si>
     <t>L250</t>
+  </si>
+  <si>
+    <t>L21</t>
+  </si>
+  <si>
+    <t>L110</t>
+  </si>
+  <si>
+    <t>25.04.19</t>
+  </si>
+  <si>
+    <t>Black_Green</t>
+  </si>
+  <si>
+    <t>Black &amp; Dark_Blue</t>
+  </si>
+  <si>
+    <t>L90</t>
   </si>
 </sst>
 </file>
@@ -638,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -722,13 +734,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,6 +865,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,10 +1183,10 @@
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E139" sqref="E139"/>
+      <selection pane="bottomRight" sqref="A1:E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1179,7 +1210,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A2" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -1188,10 +1219,10 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A3" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>140</v>
@@ -1200,7 +1231,7 @@
         <v>79</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1268,7 +1299,7 @@
     </row>
     <row r="8" spans="1:5" ht="15" hidden="1">
       <c r="A8" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="12">
         <v>769.92</v>
@@ -1284,7 +1315,7 @@
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="12">
         <v>901.24749999999995</v>
@@ -1295,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" hidden="1">
@@ -1311,23 +1342,25 @@
         <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" hidden="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B11" s="12">
         <v>946.36</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="11">
+        <v>15</v>
+      </c>
       <c r="D11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14195.4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" hidden="1">
@@ -1346,7 +1379,7 @@
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A13" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="15">
         <v>1258.1375</v>
@@ -1357,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" hidden="1">
@@ -1374,19 +1407,23 @@
       </c>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5" ht="15" hidden="1">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B15" s="12">
         <v>868.17</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="11">
+        <v>20</v>
+      </c>
       <c r="D15" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="11"/>
+        <v>17363.399999999998</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="11" t="s">
@@ -1404,7 +1441,7 @@
     </row>
     <row r="17" spans="1:5" ht="15" hidden="1">
       <c r="A17" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="12">
         <v>1238.0875000000001</v>
@@ -1418,20 +1455,22 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" hidden="1">
+    <row r="18" spans="1:5" ht="15">
       <c r="A18" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="12">
         <v>975.4325</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="11">
+        <v>15</v>
+      </c>
       <c r="D18" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14631.487499999999</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1450,10 +1489,10 @@
     </row>
     <row r="20" spans="1:5" ht="15" hidden="1">
       <c r="A20" s="11" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="B20" s="12">
-        <v>946.36</v>
+        <v>1064.655</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="13">
@@ -1464,24 +1503,26 @@
     </row>
     <row r="21" spans="1:5" ht="15" hidden="1">
       <c r="A21" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="12">
-        <v>1064.655</v>
+        <v>1430.5675000000001</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15" hidden="1">
       <c r="A22" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="12">
-        <v>1430.5675000000001</v>
+        <v>1538.8375000000001</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="13">
@@ -1489,61 +1530,61 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" hidden="1">
       <c r="A23" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" s="12">
-        <v>1538.8375000000001</v>
+        <v>1654.125</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" hidden="1">
-      <c r="A24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="12">
-        <v>1654.125</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A25" s="14" t="s">
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="15">
+      <c r="A24" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B24" s="15">
         <v>980.44500000000005</v>
       </c>
+      <c r="C24" s="11">
+        <v>16</v>
+      </c>
+      <c r="D24" s="16">
+        <f>C24*B24</f>
+        <v>15687.12</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" hidden="1">
+      <c r="A25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="12">
+        <v>940.34500000000003</v>
+      </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="16">
-        <f>C25*B25</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="D25" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
       <c r="A26" s="11" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="B26" s="12">
-        <v>940.34500000000003</v>
+        <v>1258.1400000000001</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="13">
@@ -1552,116 +1593,118 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" ht="15" hidden="1">
-      <c r="A27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="12">
-        <v>975.4325</v>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A27" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="15">
+        <v>975.43</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A28" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="15">
+        <v>936.34</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" hidden="1">
-      <c r="A28" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="12">
-        <v>1258.1400000000001</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="15" hidden="1">
       <c r="A29" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B29" s="12">
-        <v>1258.1400000000001</v>
+        <v>955.38</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="13">
-        <f t="shared" ref="D29" si="1">C29*B29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A30" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="15">
-        <v>975.43</v>
+    <row r="30" spans="1:5" ht="15" hidden="1">
+      <c r="A30" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="12">
+        <v>1014.53</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A31" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="15">
-        <v>936.34</v>
+      <c r="D30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" hidden="1">
+      <c r="A31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="12">
+        <v>1145.8575000000001</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" hidden="1">
-      <c r="A32" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="12">
-        <v>955.38</v>
+      <c r="D31" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A32" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="15">
+        <v>1159.8900000000001</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="11"/>
+      <c r="D32" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="15" hidden="1">
       <c r="A33" s="11" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="B33" s="12">
-        <v>1014.53</v>
+        <v>1264.1524999999999</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="15" hidden="1">
       <c r="A34" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B34" s="12">
-        <v>1145.8575000000001</v>
+        <v>1165.9075</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="13">
@@ -1670,44 +1713,40 @@
       </c>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A35" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="15">
-        <v>1159.8900000000001</v>
+    <row r="35" spans="1:5" ht="15" hidden="1">
+      <c r="A35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="12">
+        <v>2309.7600000000002</v>
       </c>
       <c r="C35" s="11"/>
-      <c r="D35" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>87</v>
-      </c>
+      <c r="D35" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="15" hidden="1">
       <c r="A36" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B36" s="12">
-        <v>1264.1524999999999</v>
+        <v>2556.375</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>118</v>
-      </c>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" ht="15" hidden="1">
       <c r="A37" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B37" s="12">
-        <v>1165.9075</v>
+        <v>2731.8125</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="13">
@@ -1718,10 +1757,10 @@
     </row>
     <row r="38" spans="1:5" ht="15" hidden="1">
       <c r="A38" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B38" s="12">
-        <v>2309.7600000000002</v>
+        <v>2812.0124999999998</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="13">
@@ -1732,52 +1771,60 @@
     </row>
     <row r="39" spans="1:5" ht="15" hidden="1">
       <c r="A39" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B39" s="12">
-        <v>2556.375</v>
+        <v>2714.77</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" hidden="1">
+      <c r="E39" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15">
       <c r="A40" s="11" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="B40" s="12">
-        <v>2731.8125</v>
-      </c>
-      <c r="C40" s="11"/>
+        <v>2788.96</v>
+      </c>
+      <c r="C40" s="11">
+        <v>2</v>
+      </c>
       <c r="D40" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="11"/>
+        <v>5577.92</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="15" hidden="1">
       <c r="A41" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B41" s="12">
-        <v>2812.0124999999998</v>
+        <v>6416</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="11"/>
+      <c r="E41" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="15" hidden="1">
       <c r="A42" s="11" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="B42" s="12">
-        <v>2714.77</v>
+        <v>6397.96</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="13">
@@ -1785,31 +1832,31 @@
         <v>0</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="11" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B43" s="12">
-        <v>2788.96</v>
+        <v>6057.11</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>87</v>
+      <c r="E43" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" hidden="1">
       <c r="A44" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44" s="12">
-        <v>6416</v>
+        <v>5819.5124999999998</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="13">
@@ -1822,26 +1869,24 @@
     </row>
     <row r="45" spans="1:5" ht="15" hidden="1">
       <c r="A45" s="11" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="B45" s="12">
-        <v>6397.96</v>
+        <v>6877.15</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>139</v>
-      </c>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="15" hidden="1">
       <c r="A46" s="11" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="B46" s="12">
-        <v>6057.11</v>
+        <v>6937.3</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="13">
@@ -1849,15 +1894,15 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="11" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B47" s="12">
-        <v>5819.5124999999998</v>
+        <v>7851.58</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="13">
@@ -1870,24 +1915,26 @@
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="11" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B48" s="12">
-        <v>6877.15</v>
+        <v>7714.24</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="11"/>
+      <c r="E48" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="15" hidden="1">
       <c r="A49" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49" s="12">
-        <v>6937.3</v>
+        <v>8225.5125000000007</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="13">
@@ -1895,15 +1942,15 @@
         <v>0</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" hidden="1">
       <c r="A50" s="11" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="B50" s="12">
-        <v>7851.58</v>
+        <v>7309.23</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="13">
@@ -1911,31 +1958,31 @@
         <v>0</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="11" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B51" s="12">
-        <v>7714.24</v>
+        <v>8877.14</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E51" s="14" t="s">
-        <v>82</v>
+      <c r="E51" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="11" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B52" s="12">
-        <v>8225.5125000000007</v>
+        <v>8573.3799999999992</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="13">
@@ -1943,31 +1990,33 @@
         <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="12">
+        <v>8967.36</v>
+      </c>
+      <c r="C53" s="11">
+        <v>2</v>
+      </c>
+      <c r="D53" s="13">
+        <f t="shared" si="0"/>
+        <v>17934.72</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" hidden="1">
-      <c r="A53" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B53" s="12">
-        <v>7309.23</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1">
       <c r="A54" s="11" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="B54" s="12">
-        <v>8877.14</v>
+        <v>9012.48</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="13">
@@ -1975,31 +2024,29 @@
         <v>0</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" hidden="1">
       <c r="A55" s="11" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B55" s="12">
-        <v>8573.3799999999992</v>
+        <v>1199.9925000000001</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>96</v>
-      </c>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" s="12">
-        <v>8967.36</v>
+        <v>137</v>
+      </c>
+      <c r="B56" s="31">
+        <v>7309.2275</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="13">
@@ -2012,26 +2059,24 @@
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="11" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="B57" s="12">
-        <v>9012.48</v>
+        <v>1423.55</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>143</v>
-      </c>
+      <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="15" hidden="1">
       <c r="A58" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B58" s="12">
-        <v>1199.9925000000001</v>
+        <v>1435.58</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="13">
@@ -2042,26 +2087,24 @@
     </row>
     <row r="59" spans="1:5" ht="15" hidden="1">
       <c r="A59" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="31">
-        <v>7309.2275</v>
+        <v>34</v>
+      </c>
+      <c r="B59" s="12">
+        <v>1551.87</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="15" hidden="1">
       <c r="A60" s="11" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B60" s="12">
-        <v>1423.55</v>
+        <v>1695.2275</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="13">
@@ -2072,10 +2115,10 @@
     </row>
     <row r="61" spans="1:5" ht="15" hidden="1">
       <c r="A61" s="11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B61" s="12">
-        <v>1435.58</v>
+        <v>1067.6624999999999</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="13">
@@ -2084,102 +2127,108 @@
       </c>
       <c r="E61" s="11"/>
     </row>
-    <row r="62" spans="1:5" ht="15" hidden="1">
+    <row r="62" spans="1:5" ht="15">
       <c r="A62" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="12">
-        <v>1551.87</v>
-      </c>
-      <c r="C62" s="11"/>
+        <v>168</v>
+      </c>
+      <c r="B62" s="42">
+        <v>1169.9175</v>
+      </c>
+      <c r="C62" s="11">
+        <v>10</v>
+      </c>
       <c r="D62" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="11"/>
+        <f>B62*C62</f>
+        <v>11699.174999999999</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="12">
-        <v>1695.2275</v>
+        <v>138</v>
+      </c>
+      <c r="B63" s="31">
+        <v>5310.2425000000003</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="1:5" ht="15" hidden="1">
+      <c r="E63" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15">
       <c r="A64" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="12">
-        <v>1067.6624999999999</v>
-      </c>
-      <c r="C64" s="11"/>
+        <v>163</v>
+      </c>
+      <c r="B64" s="41">
+        <v>1053.6275000000001</v>
+      </c>
+      <c r="C64" s="11">
+        <v>10</v>
+      </c>
       <c r="D64" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="11"/>
+        <f>B64*C64</f>
+        <v>10536.275000000001</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="15" hidden="1">
       <c r="A65" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B65" s="31">
-        <v>5310.2425000000003</v>
+        <v>25</v>
+      </c>
+      <c r="B65" s="12">
+        <v>1106.76</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E65" s="11" t="s">
-        <v>150</v>
-      </c>
+      <c r="E65" s="11"/>
     </row>
     <row r="66" spans="1:5" ht="15" hidden="1">
       <c r="A66" s="11" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="B66" s="12">
-        <v>1106.76</v>
+        <v>1024.56</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="11"/>
-    </row>
-    <row r="67" spans="1:5" ht="15">
+        <f>B66*C66</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" hidden="1">
       <c r="A67" s="11" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="B67" s="12">
-        <v>1024.56</v>
-      </c>
-      <c r="C67" s="11">
-        <v>60</v>
-      </c>
+        <v>1145.8575000000001</v>
+      </c>
+      <c r="C67" s="11"/>
       <c r="D67" s="13">
-        <f>B67*C67</f>
-        <v>61473.599999999999</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>87</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5" ht="15" hidden="1">
       <c r="A68" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B68" s="12">
-        <v>1145.8575000000001</v>
+        <v>1135.8325</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="13">
@@ -2190,137 +2239,145 @@
     </row>
     <row r="69" spans="1:5" ht="15" hidden="1">
       <c r="A69" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" s="12">
-        <v>1135.8325</v>
+        <v>136</v>
+      </c>
+      <c r="B69" s="31">
+        <v>4165.3874999999998</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E69" s="11"/>
+      <c r="E69" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
       <c r="A70" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" s="31">
-        <v>4165.3874999999998</v>
+        <v>28</v>
+      </c>
+      <c r="B70" s="12">
+        <v>1174.93</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E70" s="11" t="s">
-        <v>89</v>
-      </c>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" ht="15" hidden="1">
       <c r="A71" s="11" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="B71" s="12">
-        <v>1174.93</v>
+        <v>1014.53</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11"/>
+        <f>B71*C71</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="11" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="B72" s="12">
-        <v>1014.53</v>
+        <v>1273.175</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="13">
-        <f>B72*C72</f>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15" hidden="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11"/>
+    </row>
+    <row r="73" spans="1:5" ht="15">
       <c r="A73" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B73" s="12">
-        <v>1273.175</v>
-      </c>
-      <c r="C73" s="11"/>
+        <v>1077.6875</v>
+      </c>
+      <c r="C73" s="11">
+        <v>10</v>
+      </c>
       <c r="D73" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11"/>
+        <v>10776.875</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="74" spans="1:5" ht="15" hidden="1">
       <c r="A74" s="11" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B74" s="12">
-        <v>1077.6875</v>
+        <v>1101.75</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="11"/>
+    </row>
+    <row r="75" spans="1:5" ht="15">
+      <c r="A75" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="12">
+        <v>1072.675</v>
+      </c>
+      <c r="C75" s="11">
+        <v>10</v>
+      </c>
+      <c r="D75" s="13">
+        <f>C75*B75</f>
+        <v>10726.75</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="15" hidden="1">
-      <c r="A75" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="12">
-        <v>1101.75</v>
-      </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11"/>
     </row>
     <row r="76" spans="1:5" ht="15" hidden="1">
       <c r="A76" s="11" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="B76" s="12">
-        <v>1072.675</v>
+        <v>1303.25</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="13">
-        <f>C76*B76</f>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15" hidden="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11"/>
+    </row>
+    <row r="77" spans="1:5" ht="15">
       <c r="A77" s="11" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="B77" s="12">
-        <v>1303.25</v>
-      </c>
-      <c r="C77" s="11"/>
+        <v>1189.9675</v>
+      </c>
+      <c r="C77" s="11">
+        <v>20</v>
+      </c>
       <c r="D77" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11"/>
+        <f>B77*C77</f>
+        <v>23799.35</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="78" spans="1:5" ht="15" hidden="1">
       <c r="A78" s="11" t="s">
@@ -2513,7 +2570,7 @@
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="13">
-        <f t="shared" ref="D90" si="2">C90*B90</f>
+        <f t="shared" ref="D90" si="1">C90*B90</f>
         <v>0</v>
       </c>
       <c r="E90" s="11"/>
@@ -2527,7 +2584,7 @@
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="13">
-        <f t="shared" ref="D91" si="3">C91*B91</f>
+        <f t="shared" ref="D91" si="2">C91*B91</f>
         <v>0</v>
       </c>
       <c r="E91" s="11"/>
@@ -2571,7 +2628,7 @@
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="13">
-        <f t="shared" ref="D94:D132" si="4">C94*B94</f>
+        <f t="shared" ref="D94:D132" si="3">C94*B94</f>
         <v>0</v>
       </c>
       <c r="E94" s="11" t="s">
@@ -2587,7 +2644,7 @@
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E95" s="11"/>
@@ -2601,7 +2658,7 @@
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E96" s="11" t="s">
@@ -2617,7 +2674,7 @@
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E97" s="11"/>
@@ -2631,7 +2688,7 @@
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E98" s="11"/>
@@ -2645,7 +2702,7 @@
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E99" s="11"/>
@@ -2659,7 +2716,7 @@
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E100" s="11" t="s">
@@ -2675,7 +2732,7 @@
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E101" s="11" t="s">
@@ -2691,7 +2748,7 @@
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E102" s="11" t="s">
@@ -2707,7 +2764,7 @@
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E103" s="11" t="s">
@@ -2723,7 +2780,7 @@
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E104" s="11" t="s">
@@ -2739,7 +2796,7 @@
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E105" s="11" t="s">
@@ -2755,7 +2812,7 @@
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E106" s="11" t="s">
@@ -2771,7 +2828,7 @@
       </c>
       <c r="C107" s="11"/>
       <c r="D107" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E107" s="11" t="s">
@@ -2787,7 +2844,7 @@
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E108" s="11" t="s">
@@ -2803,27 +2860,29 @@
       </c>
       <c r="C109" s="11"/>
       <c r="D109" s="13">
-        <f t="shared" ref="D109:D110" si="5">C109*B109</f>
+        <f t="shared" ref="D109:D110" si="4">C109*B109</f>
         <v>0</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" hidden="1">
+    <row r="110" spans="1:5" ht="15">
       <c r="A110" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B110" s="12">
         <v>5257.11</v>
       </c>
-      <c r="C110" s="11"/>
+      <c r="C110" s="11">
+        <v>5</v>
+      </c>
       <c r="D110" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>26285.55</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" hidden="1">
@@ -2835,7 +2894,7 @@
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E111" s="11" t="s">
@@ -2851,7 +2910,7 @@
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E112" s="11" t="s">
@@ -2867,7 +2926,7 @@
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E113" s="11"/>
@@ -2881,7 +2940,7 @@
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E114" s="11" t="s">
@@ -2897,7 +2956,7 @@
       </c>
       <c r="C115" s="11"/>
       <c r="D115" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E115" s="11" t="s">
@@ -2913,7 +2972,7 @@
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E116" s="11" t="s">
@@ -2929,7 +2988,7 @@
       </c>
       <c r="C117" s="11"/>
       <c r="D117" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E117" s="11" t="s">
@@ -2945,7 +3004,7 @@
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E118" s="11" t="s">
@@ -2961,7 +3020,7 @@
       </c>
       <c r="C119" s="11"/>
       <c r="D119" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E119" s="11"/>
@@ -2975,11 +3034,11 @@
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" hidden="1">
@@ -2991,7 +3050,7 @@
       </c>
       <c r="C121" s="11"/>
       <c r="D121" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E121" s="11" t="s">
@@ -3007,26 +3066,24 @@
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="12" customHeight="1">
+    <row r="123" spans="1:5" ht="12" hidden="1" customHeight="1">
       <c r="A123" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B123" s="12">
         <v>1170.92</v>
       </c>
-      <c r="C123" s="11">
-        <v>20</v>
-      </c>
+      <c r="C123" s="11"/>
       <c r="D123" s="13">
         <f>C123*B123</f>
-        <v>23418.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>135</v>
@@ -3041,7 +3098,7 @@
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E124" s="11" t="s">
@@ -3057,11 +3114,11 @@
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" hidden="1">
@@ -3073,7 +3130,7 @@
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E126" s="11" t="s">
@@ -3089,7 +3146,7 @@
       </c>
       <c r="C127" s="11"/>
       <c r="D127" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E127" s="11" t="s">
@@ -3105,7 +3162,7 @@
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E128" s="11" t="s">
@@ -3121,7 +3178,7 @@
       </c>
       <c r="C129" s="11"/>
       <c r="D129" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E129" s="11" t="s">
@@ -3137,7 +3194,7 @@
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E130" s="11" t="s">
@@ -3153,7 +3210,7 @@
       </c>
       <c r="C131" s="11"/>
       <c r="D131" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E131" s="11"/>
@@ -3167,7 +3224,7 @@
       </c>
       <c r="C132" s="11"/>
       <c r="D132" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E132" s="11" t="s">
@@ -3181,11 +3238,11 @@
       <c r="B133" s="39"/>
       <c r="C133" s="19">
         <f>SUBTOTAL(9,C10:C132)</f>
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="D133" s="20">
-        <f>SUBTOTAL(9,D67:D132)</f>
-        <v>84892</v>
+        <f>SUBTOTAL(9,D11:D112)</f>
+        <v>179214.02249999999</v>
       </c>
       <c r="E133" s="19"/>
     </row>
@@ -3232,7 +3289,7 @@
         <v>74</v>
       </c>
       <c r="C138" s="32">
-        <v>60000</v>
+        <v>200000</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="22"/>
@@ -3286,7 +3343,7 @@
       </c>
       <c r="C143" s="29">
         <f>SUM(C137:C142)</f>
-        <v>60000</v>
+        <v>200000</v>
       </c>
       <c r="D143" s="30"/>
       <c r="E143" s="22"/>

--- a/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -843,6 +843,12 @@
     <xf numFmtId="2" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,12 +871,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,10 +1183,10 @@
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:E143"/>
+      <selection pane="bottomRight" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1200,22 +1200,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="12.75">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="12.75">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A3" s="7" t="s">
@@ -2131,7 +2131,7 @@
       <c r="A62" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B62" s="42">
+      <c r="B62" s="34">
         <v>1169.9175</v>
       </c>
       <c r="C62" s="11">
@@ -2165,7 +2165,7 @@
       <c r="A64" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B64" s="41">
+      <c r="B64" s="33">
         <v>1053.6275000000001</v>
       </c>
       <c r="C64" s="11">
@@ -3232,10 +3232,10 @@
       </c>
     </row>
     <row r="133" spans="1:9" s="2" customFormat="1" ht="15">
-      <c r="A133" s="39" t="s">
+      <c r="A133" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B133" s="39"/>
+      <c r="B133" s="41"/>
       <c r="C133" s="19">
         <f>SUBTOTAL(9,C10:C132)</f>
         <v>135</v>
@@ -3251,11 +3251,11 @@
     </row>
     <row r="135" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A135" s="21"/>
-      <c r="B135" s="40" t="s">
+      <c r="B135" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C135" s="40"/>
-      <c r="D135" s="40"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="42"/>
       <c r="E135" s="22"/>
     </row>
     <row r="136" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">

--- a/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -10,14 +10,14 @@
     <sheet name="Daily Requisition" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$135</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="171">
   <si>
     <t>Model Name</t>
   </si>
@@ -421,9 +421,6 @@
     <t>White Rose Gold</t>
   </si>
   <si>
-    <t>D38i</t>
-  </si>
-  <si>
     <t>Gold &amp; Black</t>
   </si>
   <si>
@@ -445,15 +442,9 @@
     <t>i110_SKD</t>
   </si>
   <si>
-    <t xml:space="preserve">Blue Black, Gold, Black, </t>
-  </si>
-  <si>
     <t>Mixed</t>
   </si>
   <si>
-    <t>White</t>
-  </si>
-  <si>
     <t>DEL-Tulip -2</t>
   </si>
   <si>
@@ -514,9 +505,6 @@
     <t>L110</t>
   </si>
   <si>
-    <t>25.04.19</t>
-  </si>
-  <si>
     <t>Black_Green</t>
   </si>
   <si>
@@ -524,6 +512,24 @@
   </si>
   <si>
     <t>L90</t>
+  </si>
+  <si>
+    <t>L23i</t>
+  </si>
+  <si>
+    <t>BL60</t>
+  </si>
+  <si>
+    <t>i65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black, Gold, Dark_Blue </t>
+  </si>
+  <si>
+    <t>30.04.19</t>
   </si>
 </sst>
 </file>
@@ -1180,13 +1186,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H77" sqref="H77"/>
+      <selection pane="bottomRight" activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1210,7 +1216,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A2" s="38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -1219,19 +1225,19 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A3" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1251,17 +1257,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" hidden="1">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="12">
         <v>779.95</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11">
+        <v>20</v>
+      </c>
       <c r="D5" s="13">
         <f>C5*B5</f>
-        <v>0</v>
+        <v>15599</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>87</v>
@@ -1276,7 +1284,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="13">
-        <f t="shared" ref="D6:D93" si="0">C6*B6</f>
+        <f t="shared" ref="D6:D95" si="0">C6*B6</f>
         <v>0</v>
       </c>
       <c r="E6" s="11"/>
@@ -1294,12 +1302,12 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" hidden="1">
       <c r="A8" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B8" s="12">
         <v>769.92</v>
@@ -1315,214 +1323,212 @@
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="11" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B9" s="12">
-        <v>901.24749999999995</v>
+        <v>896.23500000000001</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="13">
-        <f>B9*C9</f>
+        <f>C9*B9</f>
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" hidden="1">
       <c r="A10" s="11" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="B10" s="12">
-        <v>858.14</v>
+        <v>901.24749999999995</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="13">
-        <f t="shared" si="0"/>
+        <f>B10*C10</f>
         <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="12">
+        <v>858.14</v>
+      </c>
+      <c r="C11" s="11">
+        <v>40</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="0"/>
+        <v>34325.599999999999</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B12" s="12">
         <v>946.36</v>
       </c>
-      <c r="C11" s="11">
-        <v>15</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="0"/>
-        <v>14195.4</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" hidden="1">
-      <c r="A12" s="11" t="s">
+      <c r="C12" s="11">
+        <v>30</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="0"/>
+        <v>28390.799999999999</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" hidden="1">
+      <c r="A13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B13" s="12">
         <v>882.2</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A13" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="15">
+      <c r="C13" s="11"/>
+      <c r="D13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A14" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="15">
         <v>1258.1375</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" hidden="1">
-      <c r="A14" s="11" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" hidden="1">
+      <c r="A15" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B15" s="12">
         <v>887.21</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="12">
-        <v>868.17</v>
-      </c>
-      <c r="C15" s="11">
-        <v>20</v>
-      </c>
+      <c r="C15" s="11"/>
       <c r="D15" s="13">
         <f t="shared" si="0"/>
-        <v>17363.399999999998</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>166</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="11" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B16" s="12">
-        <v>877.1875</v>
+        <v>868.17</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15" hidden="1">
       <c r="A17" s="11" t="s">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="B17" s="12">
-        <v>1238.0875000000001</v>
+        <v>877.1875</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" hidden="1">
       <c r="A18" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1238.0875000000001</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" hidden="1">
+      <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B19" s="12">
         <v>975.4325</v>
       </c>
-      <c r="C18" s="11">
-        <v>15</v>
-      </c>
-      <c r="D18" s="13">
-        <f t="shared" si="0"/>
-        <v>14631.487499999999</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A19" s="14" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A20" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B20" s="15">
         <v>985.46</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" hidden="1">
-      <c r="A20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="12">
-        <v>1064.655</v>
-      </c>
       <c r="C20" s="11"/>
-      <c r="D20" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="11"/>
+      <c r="D20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" ht="15" hidden="1">
       <c r="A21" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="12">
-        <v>1430.5675000000001</v>
+        <v>1064.655</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>100</v>
-      </c>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" ht="15" hidden="1">
       <c r="A22" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="12">
-        <v>1538.8375000000001</v>
+        <v>1430.5675000000001</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="13">
@@ -1530,61 +1536,61 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" hidden="1">
       <c r="A23" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="12">
-        <v>1654.125</v>
+        <v>1538.8375000000001</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="15">
-      <c r="A24" s="14" t="s">
+      <c r="E23" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" hidden="1">
+      <c r="A24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1654.125</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A25" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B25" s="15">
         <v>980.44500000000005</v>
       </c>
-      <c r="C24" s="11">
-        <v>16</v>
-      </c>
-      <c r="D24" s="16">
-        <f>C24*B24</f>
-        <v>15687.12</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" hidden="1">
-      <c r="A25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="12">
-        <v>940.34500000000003</v>
-      </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="11"/>
+      <c r="D25" s="16">
+        <f>C25*B25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
       <c r="A26" s="11" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="B26" s="12">
-        <v>1258.1400000000001</v>
+        <v>940.34500000000003</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="13">
@@ -1593,28 +1599,26 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A27" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="15">
-        <v>975.43</v>
+    <row r="27" spans="1:5" ht="15" hidden="1">
+      <c r="A27" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="12">
+        <v>1258.1400000000001</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A28" s="14" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="B28" s="15">
-        <v>936.34</v>
+        <v>975.43</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="16">
@@ -1622,29 +1626,33 @@
         <v>0</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" hidden="1">
-      <c r="A29" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="12">
-        <v>955.38</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="11"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="15">
+      <c r="A29" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="15">
+        <v>5607.99</v>
+      </c>
+      <c r="C29" s="11">
+        <v>10</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="0"/>
+        <v>56079.899999999994</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15" hidden="1">
       <c r="A30" s="11" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B30" s="12">
-        <v>1014.53</v>
+        <v>955.38</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="13">
@@ -1655,10 +1663,10 @@
     </row>
     <row r="31" spans="1:5" ht="15" hidden="1">
       <c r="A31" s="11" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="B31" s="12">
-        <v>1145.8575000000001</v>
+        <v>1014.53</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="13">
@@ -1667,58 +1675,58 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:5" ht="15" hidden="1">
+      <c r="A32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="12">
+        <v>1145.8575000000001</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A33" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B33" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="14" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" hidden="1">
-      <c r="A33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="12">
-        <v>1264.1524999999999</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" hidden="1">
       <c r="A34" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" s="12">
-        <v>1165.9075</v>
+        <v>1264.1524999999999</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15" hidden="1">
       <c r="A35" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B35" s="12">
-        <v>2309.7600000000002</v>
+        <v>1165.9075</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="13">
@@ -1729,10 +1737,10 @@
     </row>
     <row r="36" spans="1:5" ht="15" hidden="1">
       <c r="A36" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" s="12">
-        <v>2556.375</v>
+        <v>2309.7600000000002</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="13">
@@ -1743,10 +1751,10 @@
     </row>
     <row r="37" spans="1:5" ht="15" hidden="1">
       <c r="A37" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="12">
-        <v>2731.8125</v>
+        <v>2556.375</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="13">
@@ -1757,10 +1765,10 @@
     </row>
     <row r="38" spans="1:5" ht="15" hidden="1">
       <c r="A38" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="12">
-        <v>2812.0124999999998</v>
+        <v>2731.8125</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="13">
@@ -1771,60 +1779,56 @@
     </row>
     <row r="39" spans="1:5" ht="15" hidden="1">
       <c r="A39" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" s="12">
-        <v>2714.77</v>
+        <v>2812.0124999999998</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" hidden="1">
+      <c r="A40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="12">
+        <v>2714.77</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15">
-      <c r="A40" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="12">
-        <v>2788.96</v>
-      </c>
-      <c r="C40" s="11">
-        <v>2</v>
-      </c>
-      <c r="D40" s="13">
-        <f t="shared" si="0"/>
-        <v>5577.92</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" hidden="1">
       <c r="A41" s="11" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="B41" s="12">
-        <v>6416</v>
+        <v>2788.96</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>82</v>
+      <c r="E41" s="14" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" hidden="1">
       <c r="A42" s="11" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="B42" s="12">
-        <v>6397.96</v>
+        <v>6416</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="13">
@@ -1832,15 +1836,15 @@
         <v>0</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="11" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B43" s="12">
-        <v>6057.11</v>
+        <v>6397.96</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="13">
@@ -1848,15 +1852,15 @@
         <v>0</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" hidden="1">
       <c r="A44" s="11" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="B44" s="12">
-        <v>5819.5124999999998</v>
+        <v>6057.11</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="13">
@@ -1864,45 +1868,45 @@
         <v>0</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" hidden="1">
       <c r="A45" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45" s="12">
-        <v>6877.15</v>
+        <v>5819.5124999999998</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="11"/>
+      <c r="E45" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="15" hidden="1">
       <c r="A46" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" s="12">
-        <v>6937.3</v>
+        <v>6877.15</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>133</v>
-      </c>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="11" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B47" s="12">
-        <v>7851.58</v>
+        <v>6937.3</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="13">
@@ -1910,47 +1914,47 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="11" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B48" s="12">
-        <v>7714.24</v>
+        <v>7851.58</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" hidden="1">
       <c r="A49" s="11" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B49" s="12">
-        <v>8225.5125000000007</v>
+        <v>7714.24</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" hidden="1">
       <c r="A50" s="11" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="B50" s="12">
-        <v>7309.23</v>
+        <v>8225.5125000000007</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="13">
@@ -1958,15 +1962,15 @@
         <v>0</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="11" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="B51" s="12">
-        <v>8877.14</v>
+        <v>7309.23</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="13">
@@ -1974,15 +1978,15 @@
         <v>0</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="12">
-        <v>8573.3799999999992</v>
+        <v>8877.14</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="13">
@@ -1990,33 +1994,31 @@
         <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" hidden="1">
+      <c r="A53" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="12">
+        <v>8573.3799999999992</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15">
-      <c r="A53" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="12">
-        <v>8967.36</v>
-      </c>
-      <c r="C53" s="11">
-        <v>2</v>
-      </c>
-      <c r="D53" s="13">
-        <f t="shared" si="0"/>
-        <v>17934.72</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1">
       <c r="A54" s="11" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B54" s="12">
-        <v>9012.48</v>
+        <v>8967.36</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="13">
@@ -2024,59 +2026,61 @@
         <v>0</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" hidden="1">
       <c r="A55" s="11" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="B55" s="12">
-        <v>1199.9925000000001</v>
+        <v>9012.48</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E55" s="11"/>
+      <c r="E55" s="11" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B56" s="31">
-        <v>7309.2275</v>
+        <v>32</v>
+      </c>
+      <c r="B56" s="12">
+        <v>1199.9925000000001</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" s="12">
-        <v>1423.55</v>
+        <v>136</v>
+      </c>
+      <c r="B57" s="31">
+        <v>7309.2275</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="11"/>
+      <c r="E57" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="15" hidden="1">
       <c r="A58" s="11" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B58" s="12">
-        <v>1435.58</v>
+        <v>1423.55</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="13">
@@ -2087,10 +2091,10 @@
     </row>
     <row r="59" spans="1:5" ht="15" hidden="1">
       <c r="A59" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B59" s="12">
-        <v>1551.87</v>
+        <v>1435.58</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="13">
@@ -2101,10 +2105,10 @@
     </row>
     <row r="60" spans="1:5" ht="15" hidden="1">
       <c r="A60" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B60" s="12">
-        <v>1695.2275</v>
+        <v>1551.87</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="13">
@@ -2115,150 +2119,150 @@
     </row>
     <row r="61" spans="1:5" ht="15" hidden="1">
       <c r="A61" s="11" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B61" s="12">
-        <v>1067.6624999999999</v>
+        <v>1695.2275</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" spans="1:5" ht="15">
+      <c r="E61" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B62" s="34">
-        <v>1169.9175</v>
-      </c>
-      <c r="C62" s="11">
-        <v>10</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B62" s="12">
+        <v>1067.6624999999999</v>
+      </c>
+      <c r="C62" s="11"/>
       <c r="D62" s="13">
-        <f>B62*C62</f>
-        <v>11699.174999999999</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>143</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B63" s="31">
-        <v>5310.2425000000003</v>
+        <v>164</v>
+      </c>
+      <c r="B63" s="34">
+        <v>1169.9175</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="13">
-        <f t="shared" si="0"/>
+        <f>B63*C63</f>
         <v>0</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B64" s="33">
-        <v>1053.6275000000001</v>
-      </c>
-      <c r="C64" s="11">
-        <v>10</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B64" s="31">
+        <v>5310.2425000000003</v>
+      </c>
+      <c r="C64" s="11"/>
       <c r="D64" s="13">
-        <f>B64*C64</f>
-        <v>10536.275000000001</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" hidden="1">
       <c r="A65" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="12">
-        <v>1106.76</v>
+        <v>160</v>
+      </c>
+      <c r="B65" s="33">
+        <v>1053.6275000000001</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="11"/>
+        <f>B65*C65</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="15" hidden="1">
       <c r="A66" s="11" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="B66" s="12">
-        <v>1024.56</v>
+        <v>1106.76</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="13">
-        <f>B66*C66</f>
-        <v>0</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>87</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5" ht="15" hidden="1">
       <c r="A67" s="11" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="B67" s="12">
-        <v>1145.8575000000001</v>
+        <v>1072.675</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="11"/>
-    </row>
-    <row r="68" spans="1:5" ht="15" hidden="1">
+        <f>C67*B67</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15">
       <c r="A68" s="11" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="B68" s="12">
-        <v>1135.8325</v>
-      </c>
-      <c r="C68" s="11"/>
+        <v>1024.56</v>
+      </c>
+      <c r="C68" s="11">
+        <v>80</v>
+      </c>
       <c r="D68" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E68" s="11"/>
+        <f>B68*C68</f>
+        <v>81964.799999999988</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="15" hidden="1">
       <c r="A69" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="31">
-        <v>4165.3874999999998</v>
+        <v>26</v>
+      </c>
+      <c r="B69" s="12">
+        <v>1145.8575000000001</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E69" s="11" t="s">
-        <v>89</v>
-      </c>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
       <c r="A70" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70" s="12">
-        <v>1174.93</v>
+        <v>1135.8325</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="13">
@@ -2269,26 +2273,26 @@
     </row>
     <row r="71" spans="1:5" ht="15" hidden="1">
       <c r="A71" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B71" s="12">
-        <v>1014.53</v>
+        <v>135</v>
+      </c>
+      <c r="B71" s="31">
+        <v>4165.3874999999998</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="13">
-        <f>B71*C71</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B72" s="12">
-        <v>1273.175</v>
+        <v>1174.93</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="13">
@@ -2297,19 +2301,17 @@
       </c>
       <c r="E72" s="11"/>
     </row>
-    <row r="73" spans="1:5" ht="15">
+    <row r="73" spans="1:5" ht="15" hidden="1">
       <c r="A73" s="11" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="B73" s="12">
-        <v>1077.6875</v>
-      </c>
-      <c r="C73" s="11">
-        <v>10</v>
-      </c>
+        <v>1014.53</v>
+      </c>
+      <c r="C73" s="11"/>
       <c r="D73" s="13">
-        <f t="shared" si="0"/>
-        <v>10776.875</v>
+        <f>B73*C73</f>
+        <v>0</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>89</v>
@@ -2317,10 +2319,10 @@
     </row>
     <row r="74" spans="1:5" ht="15" hidden="1">
       <c r="A74" s="11" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="B74" s="12">
-        <v>1101.75</v>
+        <v>1273.175</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="13">
@@ -2329,19 +2331,17 @@
       </c>
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="1:5" ht="15">
+    <row r="75" spans="1:5" ht="15" hidden="1">
       <c r="A75" s="11" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="B75" s="12">
-        <v>1072.675</v>
-      </c>
-      <c r="C75" s="11">
-        <v>10</v>
-      </c>
+        <v>1077.6875</v>
+      </c>
+      <c r="C75" s="11"/>
       <c r="D75" s="13">
-        <f>C75*B75</f>
-        <v>10726.75</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>89</v>
@@ -2349,10 +2349,10 @@
     </row>
     <row r="76" spans="1:5" ht="15" hidden="1">
       <c r="A76" s="11" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="B76" s="12">
-        <v>1303.25</v>
+        <v>1101.75</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="13">
@@ -2361,30 +2361,28 @@
       </c>
       <c r="E76" s="11"/>
     </row>
-    <row r="77" spans="1:5" ht="15">
+    <row r="77" spans="1:5" ht="15" hidden="1">
       <c r="A77" s="11" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B77" s="12">
-        <v>1189.9675</v>
-      </c>
-      <c r="C77" s="11">
-        <v>20</v>
-      </c>
+        <v>1072.675</v>
+      </c>
+      <c r="C77" s="11"/>
       <c r="D77" s="13">
-        <f>B77*C77</f>
-        <v>23799.35</v>
+        <f>C77*B77</f>
+        <v>0</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" hidden="1">
       <c r="A78" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B78" s="12">
-        <v>8150.3249999999998</v>
+        <v>1303.25</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="13">
@@ -2393,42 +2391,44 @@
       </c>
       <c r="E78" s="11"/>
     </row>
-    <row r="79" spans="1:5" ht="15" hidden="1">
+    <row r="79" spans="1:5" ht="15">
       <c r="A79" s="11" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="B79" s="12">
-        <v>9067.6124999999993</v>
-      </c>
-      <c r="C79" s="11"/>
+        <v>1189.9675</v>
+      </c>
+      <c r="C79" s="11">
+        <v>20</v>
+      </c>
       <c r="D79" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11"/>
+        <f>C79*B79</f>
+        <v>23799.35</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="15" hidden="1">
       <c r="A80" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B80" s="12">
-        <v>8565.36</v>
+        <v>8150.3249999999998</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E80" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" ht="15" hidden="1">
       <c r="A81" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B81" s="12">
-        <v>11854.5625</v>
+        <v>9067.6124999999993</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="13">
@@ -2439,42 +2439,40 @@
     </row>
     <row r="82" spans="1:5" ht="15" hidden="1">
       <c r="A82" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B82" s="12">
-        <v>10616.475</v>
+        <v>8565.36</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" hidden="1">
       <c r="A83" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B83" s="12">
-        <v>12215.4625</v>
+        <v>11854.5625</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E83" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" ht="15" hidden="1">
       <c r="A84" s="11" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B84" s="12">
-        <v>12691.65</v>
+        <v>10616.475</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="13">
@@ -2482,15 +2480,15 @@
         <v>0</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" hidden="1">
       <c r="A85" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B85" s="12">
-        <v>9097.6875</v>
+        <v>12215.4625</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="13">
@@ -2498,15 +2496,15 @@
         <v>0</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" hidden="1">
       <c r="A86" s="11" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B86" s="12">
-        <v>10285.65</v>
+        <v>12691.65</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="13">
@@ -2514,15 +2512,15 @@
         <v>0</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" hidden="1">
       <c r="A87" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B87" s="12">
-        <v>6342.8175000000001</v>
+        <v>9097.6875</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="13">
@@ -2535,100 +2533,102 @@
     </row>
     <row r="88" spans="1:5" ht="15" hidden="1">
       <c r="A88" s="11" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="B88" s="12">
-        <v>17443.5</v>
+        <v>10285.65</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E88" s="11"/>
+      <c r="E88" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="89" spans="1:5" ht="15" hidden="1">
       <c r="A89" s="11" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B89" s="12">
-        <v>13914.7</v>
+        <v>6342.8175000000001</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E89" s="11"/>
+      <c r="E89" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="90" spans="1:5" ht="15" hidden="1">
       <c r="A90" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B90" s="12">
-        <v>12501.18</v>
+        <v>17443.5</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="13">
-        <f t="shared" ref="D90" si="1">C90*B90</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" ht="15" hidden="1">
       <c r="A91" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B91" s="12">
-        <v>23704.11</v>
+        <v>13914.7</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="13">
-        <f t="shared" ref="D91" si="2">C91*B91</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E91" s="11"/>
     </row>
     <row r="92" spans="1:5" ht="15" hidden="1">
       <c r="A92" s="11" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="B92" s="12">
-        <v>1371.42</v>
+        <v>12501.18</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>82</v>
-      </c>
+        <f t="shared" ref="D92" si="1">C92*B92</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5" ht="15" hidden="1">
       <c r="A93" s="11" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="B93" s="12">
-        <v>1410.5174999999999</v>
+        <v>23704.11</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D93" si="2">C93*B93</f>
         <v>0</v>
       </c>
       <c r="E93" s="11"/>
     </row>
     <row r="94" spans="1:5" ht="15" hidden="1">
       <c r="A94" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B94" s="12">
-        <v>1694.2249999999999</v>
+        <v>1371.42</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="13">
-        <f t="shared" ref="D94:D132" si="3">C94*B94</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E94" s="11" t="s">
@@ -2637,40 +2637,40 @@
     </row>
     <row r="95" spans="1:5" ht="15" hidden="1">
       <c r="A95" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B95" s="17">
-        <v>1219.04</v>
+        <v>47</v>
+      </c>
+      <c r="B95" s="12">
+        <v>1410.5174999999999</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E95" s="11"/>
     </row>
     <row r="96" spans="1:5" ht="15" hidden="1">
       <c r="A96" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B96" s="18">
-        <v>1336.33</v>
+        <v>48</v>
+      </c>
+      <c r="B96" s="12">
+        <v>1694.2249999999999</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D96:D134" si="3">C96*B96</f>
         <v>0</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" hidden="1">
       <c r="A97" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B97" s="12">
-        <v>1871.6675</v>
+        <v>123</v>
+      </c>
+      <c r="B97" s="17">
+        <v>1219.04</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="13">
@@ -2681,24 +2681,26 @@
     </row>
     <row r="98" spans="1:5" ht="15" hidden="1">
       <c r="A98" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B98" s="12">
-        <v>1854.625</v>
+        <v>128</v>
+      </c>
+      <c r="B98" s="18">
+        <v>1336.33</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E98" s="11"/>
+      <c r="E98" s="11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="99" spans="1:5" ht="15" hidden="1">
       <c r="A99" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B99" s="12">
-        <v>1446.6075000000001</v>
+        <v>1871.6675</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="13">
@@ -2709,42 +2711,38 @@
     </row>
     <row r="100" spans="1:5" ht="15" hidden="1">
       <c r="A100" s="11" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="B100" s="12">
-        <v>7586.92</v>
+        <v>1854.625</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E100" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5" ht="15" hidden="1">
       <c r="A101" s="11" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B101" s="12">
-        <v>8641.5499999999993</v>
+        <v>1446.6075000000001</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E101" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="E101" s="11"/>
     </row>
     <row r="102" spans="1:5" ht="15" hidden="1">
       <c r="A102" s="11" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B102" s="12">
-        <v>5183.9274999999998</v>
+        <v>7586.92</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="13">
@@ -2752,15 +2750,15 @@
         <v>0</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" hidden="1">
       <c r="A103" s="11" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B103" s="12">
-        <v>5455.6049999999996</v>
+        <v>8641.5499999999993</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="13">
@@ -2768,15 +2766,15 @@
         <v>0</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" hidden="1">
       <c r="A104" s="11" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B104" s="12">
-        <v>5510.74</v>
+        <v>5183.9274999999998</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="13">
@@ -2789,10 +2787,10 @@
     </row>
     <row r="105" spans="1:5" ht="15" hidden="1">
       <c r="A105" s="11" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="B105" s="12">
-        <v>4896.21</v>
+        <v>5455.6049999999996</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="13">
@@ -2805,10 +2803,10 @@
     </row>
     <row r="106" spans="1:5" ht="15" hidden="1">
       <c r="A106" s="11" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B106" s="12">
-        <v>5150.8500000000004</v>
+        <v>5510.74</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="13">
@@ -2816,15 +2814,15 @@
         <v>0</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" hidden="1">
       <c r="A107" s="11" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="B107" s="12">
-        <v>5310.24</v>
+        <v>4896.21</v>
       </c>
       <c r="C107" s="11"/>
       <c r="D107" s="13">
@@ -2832,15 +2830,15 @@
         <v>0</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" hidden="1">
       <c r="A108" s="11" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B108" s="12">
-        <v>5423.53</v>
+        <v>5150.8500000000004</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="13">
@@ -2848,95 +2846,97 @@
         <v>0</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" hidden="1">
       <c r="A109" s="11" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B109" s="12">
-        <v>5940.82</v>
+        <v>5310.24</v>
       </c>
       <c r="C109" s="11"/>
       <c r="D109" s="13">
-        <f t="shared" ref="D109:D110" si="4">C109*B109</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E109" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" hidden="1">
+      <c r="A110" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" s="12">
+        <v>5423.53</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E110" s="11" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15">
-      <c r="A110" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B110" s="12">
-        <v>5257.11</v>
-      </c>
-      <c r="C110" s="11">
-        <v>5</v>
-      </c>
-      <c r="D110" s="13">
-        <f t="shared" si="4"/>
-        <v>26285.55</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" hidden="1">
       <c r="A111" s="11" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="B111" s="12">
-        <v>2900.2325000000001</v>
+        <v>5940.82</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D111" si="4">C111*B111</f>
         <v>0</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" hidden="1">
+    <row r="112" spans="1:5" ht="15">
       <c r="A112" s="11" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="B112" s="12">
-        <v>3143.84</v>
-      </c>
-      <c r="C112" s="11"/>
+        <v>5257.11</v>
+      </c>
+      <c r="C112" s="11">
+        <v>2</v>
+      </c>
       <c r="D112" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>C112*B112</f>
+        <v>10514.22</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" hidden="1">
       <c r="A113" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B113" s="12">
-        <v>3518.7750000000001</v>
+        <v>2900.2325000000001</v>
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E113" s="11"/>
+      <c r="E113" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="114" spans="1:5" ht="15" hidden="1">
       <c r="A114" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B114" s="12">
-        <v>3556.87</v>
+        <v>3143.84</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="13">
@@ -2944,31 +2944,29 @@
         <v>0</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" hidden="1">
       <c r="A115" s="11" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B115" s="12">
-        <v>3471.66</v>
+        <v>3518.7750000000001</v>
       </c>
       <c r="C115" s="11"/>
       <c r="D115" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E115" s="11" t="s">
-        <v>143</v>
-      </c>
+      <c r="E115" s="11"/>
     </row>
     <row r="116" spans="1:5" ht="15" hidden="1">
       <c r="A116" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B116" s="12">
-        <v>3919.7750000000001</v>
+        <v>3556.87</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="13">
@@ -2976,15 +2974,15 @@
         <v>0</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" hidden="1">
       <c r="A117" s="11" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="B117" s="12">
-        <v>4534.3074999999999</v>
+        <v>3471.66</v>
       </c>
       <c r="C117" s="11"/>
       <c r="D117" s="13">
@@ -2992,15 +2990,15 @@
         <v>0</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" hidden="1">
       <c r="A118" s="11" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="B118" s="12">
-        <v>3433.56</v>
+        <v>3919.7750000000001</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="13">
@@ -3008,29 +3006,31 @@
         <v>0</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" hidden="1">
       <c r="A119" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B119" s="12">
-        <v>4476.1625000000004</v>
+        <v>4534.3074999999999</v>
       </c>
       <c r="C119" s="11"/>
       <c r="D119" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E119" s="11"/>
+      <c r="E119" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="120" spans="1:5" ht="15" hidden="1">
       <c r="A120" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B120" s="12">
-        <v>4575.41</v>
+        <v>3433.56</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="13">
@@ -3038,31 +3038,29 @@
         <v>0</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" hidden="1">
       <c r="A121" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B121" s="12">
-        <v>5269.14</v>
+        <v>4476.1625000000004</v>
       </c>
       <c r="C121" s="11"/>
       <c r="D121" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E121" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="E121" s="11"/>
     </row>
     <row r="122" spans="1:5" ht="15" hidden="1">
       <c r="A122" s="11" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="B122" s="12">
-        <v>5921.7674999999999</v>
+        <v>4575.41</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="13">
@@ -3070,31 +3068,31 @@
         <v>0</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="12" hidden="1" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" hidden="1">
       <c r="A123" s="11" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="B123" s="12">
-        <v>1170.92</v>
+        <v>5269.14</v>
       </c>
       <c r="C123" s="11"/>
       <c r="D123" s="13">
-        <f>C123*B123</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" hidden="1">
       <c r="A124" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B124" s="12">
-        <v>3934.8125</v>
+        <v>5921.7674999999999</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="13">
@@ -3105,28 +3103,28 @@
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" hidden="1">
+    <row r="125" spans="1:5" ht="12" hidden="1" customHeight="1">
       <c r="A125" s="11" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="B125" s="12">
-        <v>4027.0425</v>
+        <v>1170.92</v>
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="13">
-        <f t="shared" si="3"/>
+        <f>C125*B125</f>
         <v>0</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" hidden="1">
       <c r="A126" s="11" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="B126" s="12">
-        <v>3892.71</v>
+        <v>3934.8125</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="13">
@@ -3134,15 +3132,15 @@
         <v>0</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" hidden="1">
       <c r="A127" s="11" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="B127" s="12">
-        <v>4507.24</v>
+        <v>4027.0425</v>
       </c>
       <c r="C127" s="11"/>
       <c r="D127" s="13">
@@ -3150,15 +3148,15 @@
         <v>0</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" hidden="1">
       <c r="A128" s="11" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B128" s="12">
-        <v>4409</v>
+        <v>3892.71</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="13">
@@ -3166,15 +3164,15 @@
         <v>0</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" hidden="1">
       <c r="A129" s="11" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="B129" s="12">
-        <v>4165.3900000000003</v>
+        <v>4507.24</v>
       </c>
       <c r="C129" s="11"/>
       <c r="D129" s="13">
@@ -3182,15 +3180,15 @@
         <v>0</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" hidden="1">
       <c r="A130" s="11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B130" s="12">
-        <v>4252.6099999999997</v>
+        <v>4409</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="13">
@@ -3203,24 +3201,26 @@
     </row>
     <row r="131" spans="1:9" ht="15" hidden="1">
       <c r="A131" s="11" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="B131" s="12">
-        <v>12741.775</v>
+        <v>4165.3900000000003</v>
       </c>
       <c r="C131" s="11"/>
       <c r="D131" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E131" s="11"/>
+      <c r="E131" s="11" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="132" spans="1:9" ht="15" hidden="1">
       <c r="A132" s="11" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B132" s="12">
-        <v>12310.7</v>
+        <v>4252.6099999999997</v>
       </c>
       <c r="C132" s="11"/>
       <c r="D132" s="13">
@@ -3228,76 +3228,84 @@
         <v>0</v>
       </c>
       <c r="E132" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15" hidden="1">
+      <c r="A133" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B133" s="12">
+        <v>12741.775</v>
+      </c>
+      <c r="C133" s="11"/>
+      <c r="D133" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E133" s="11"/>
+    </row>
+    <row r="134" spans="1:9" ht="15" hidden="1">
+      <c r="A134" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B134" s="12">
+        <v>12310.7</v>
+      </c>
+      <c r="C134" s="11"/>
+      <c r="D134" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="2" customFormat="1" ht="15">
-      <c r="A133" s="41" t="s">
+    <row r="135" spans="1:9" s="2" customFormat="1" ht="15">
+      <c r="A135" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B133" s="41"/>
-      <c r="C133" s="19">
-        <f>SUBTOTAL(9,C10:C132)</f>
-        <v>135</v>
-      </c>
-      <c r="D133" s="20">
-        <f>SUBTOTAL(9,D11:D112)</f>
-        <v>179214.02249999999</v>
-      </c>
-      <c r="E133" s="19"/>
-    </row>
-    <row r="134" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A134" s="3"/>
-    </row>
-    <row r="135" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A135" s="21"/>
-      <c r="B135" s="42" t="s">
+      <c r="B135" s="41"/>
+      <c r="C135" s="19">
+        <f>SUM(C5:C134)</f>
+        <v>202</v>
+      </c>
+      <c r="D135" s="20">
+        <f>SUM(D5:D134)</f>
+        <v>250673.66999999998</v>
+      </c>
+      <c r="E135" s="19"/>
+    </row>
+    <row r="136" spans="1:9" ht="9.75" customHeight="1">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A137" s="21"/>
+      <c r="B137" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C135" s="42"/>
-      <c r="D135" s="42"/>
-      <c r="E135" s="22"/>
-    </row>
-    <row r="136" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A136" s="23"/>
-      <c r="B136" s="24" t="s">
+      <c r="C137" s="42"/>
+      <c r="D137" s="42"/>
+      <c r="E137" s="22"/>
+    </row>
+    <row r="138" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A138" s="23"/>
+      <c r="B138" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C136" s="24" t="s">
+      <c r="C138" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D136" s="24" t="s">
+      <c r="D138" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E136" s="22"/>
-      <c r="I136" s="25"/>
-    </row>
-    <row r="137" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A137" s="26"/>
-      <c r="B137" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C137" s="27">
-        <v>0</v>
-      </c>
-      <c r="D137" s="11"/>
-      <c r="E137" s="22"/>
-    </row>
-    <row r="138" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A138" s="26"/>
-      <c r="B138" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C138" s="32">
-        <v>200000</v>
-      </c>
-      <c r="D138" s="11"/>
       <c r="E138" s="22"/>
+      <c r="I138" s="25"/>
     </row>
     <row r="139" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A139" s="26"/>
       <c r="B139" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C139" s="27">
         <v>0</v>
@@ -3308,16 +3316,18 @@
     <row r="140" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A140" s="26"/>
       <c r="B140" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C140" s="27"/>
+        <v>74</v>
+      </c>
+      <c r="C140" s="32">
+        <v>185000</v>
+      </c>
       <c r="D140" s="11"/>
       <c r="E140" s="22"/>
     </row>
     <row r="141" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A141" s="26"/>
       <c r="B141" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C141" s="27">
         <v>0</v>
@@ -3328,33 +3338,53 @@
     <row r="142" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A142" s="26"/>
       <c r="B142" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C142" s="27">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C142" s="27"/>
       <c r="D142" s="11"/>
       <c r="E142" s="22"/>
     </row>
     <row r="143" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A143" s="23"/>
-      <c r="B143" s="28" t="s">
+      <c r="A143" s="26"/>
+      <c r="B143" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C143" s="27">
+        <v>0</v>
+      </c>
+      <c r="D143" s="11"/>
+      <c r="E143" s="22"/>
+    </row>
+    <row r="144" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A144" s="26"/>
+      <c r="B144" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C144" s="27">
+        <v>0</v>
+      </c>
+      <c r="D144" s="11"/>
+      <c r="E144" s="22"/>
+    </row>
+    <row r="145" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A145" s="23"/>
+      <c r="B145" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C143" s="29">
-        <f>SUM(C137:C142)</f>
-        <v>200000</v>
-      </c>
-      <c r="D143" s="30"/>
-      <c r="E143" s="22"/>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="3"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
+      <c r="C145" s="29">
+        <f>SUM(C139:C144)</f>
+        <v>185000</v>
+      </c>
+      <c r="D145" s="30"/>
+      <c r="E145" s="22"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="3"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E132">
+  <autoFilter ref="A4:E135">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3364,8 +3394,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="B137:D137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
